--- a/コマンドコピペサービス/テスト設計書/テスト設計書.xlsx
+++ b/コマンドコピペサービス/テスト設計書/テスト設計書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kosuke/Desktop/コマンドコピペサービス/テスト設計書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kosuke/Documents/ruby_project/Copeeeeeeeee/コマンドコピペサービス/テスト設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09D55B5-0BB1-1648-87C7-12EF23C5E5BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B03AB-FB1D-664E-80BA-93A9352DF5D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="460" windowWidth="28300" windowHeight="16280" activeTab="1" xr2:uid="{3F7EB9BB-D323-F94C-8CFF-9AAC3882EBEA}"/>
   </bookViews>
@@ -5409,11 +5409,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5421,16 +5418,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5439,22 +5436,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5466,35 +5472,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5502,8 +5499,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5525,12 +5531,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6723,125 +6723,125 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="60"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="68"/>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="60"/>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="64"/>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="64"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="64"/>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="64"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="64"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="59"/>
+      <c r="C12" s="64"/>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="64"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="59"/>
+      <c r="C14" s="64"/>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="59"/>
+      <c r="C15" s="64"/>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="59"/>
+      <c r="C16" s="64"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="59"/>
+      <c r="C17" s="64"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="59"/>
+      <c r="C18" s="64"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="67"/>
+      <c r="C19" s="66"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="60"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="60">
+      <c r="B21" s="59">
         <f>COUNTA(B6:C19)</f>
         <v>14</v>
       </c>
-      <c r="C21" s="61"/>
+      <c r="C21" s="60"/>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="60"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="1" t="s">
@@ -6875,6 +6875,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B6:C6"/>
@@ -6891,10 +6895,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7023,7 +7023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CAADBE-2B0C-B243-9AB5-3E008C31DF88}">
   <dimension ref="B7:G389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
@@ -7059,7 +7059,7 @@
       <c r="C8" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="86" t="s">
         <v>63</v>
       </c>
       <c r="E8" s="23" t="s">
@@ -7071,691 +7071,691 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="3:7" ht="21">
-      <c r="C9" s="68"/>
-      <c r="D9" s="75"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="84"/>
     </row>
     <row r="10" spans="3:7" ht="21">
-      <c r="C10" s="68"/>
-      <c r="D10" s="76"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="73"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="11" spans="3:7" ht="21" customHeight="1">
-      <c r="C11" s="68"/>
-      <c r="D11" s="74" t="s">
+      <c r="C11" s="74"/>
+      <c r="D11" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="79" t="s">
         <v>97</v>
       </c>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="68"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="3:7" ht="21" customHeight="1">
-      <c r="C13" s="68"/>
-      <c r="D13" s="74" t="s">
+      <c r="C13" s="74"/>
+      <c r="D13" s="76" t="s">
         <v>103</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="79" t="s">
         <v>101</v>
       </c>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="3:7" ht="21">
-      <c r="C14" s="68"/>
-      <c r="D14" s="75"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="78"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="68"/>
-      <c r="D15" s="75"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="77" t="s">
+      <c r="F15" s="72" t="s">
         <v>98</v>
       </c>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="68"/>
-      <c r="D16" s="75"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="81"/>
+      <c r="F16" s="80"/>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="3:7" ht="21" customHeight="1">
-      <c r="C17" s="68"/>
-      <c r="D17" s="74" t="s">
+      <c r="C17" s="74"/>
+      <c r="D17" s="76" t="s">
         <v>328</v>
       </c>
-      <c r="E17" s="80" t="s">
+      <c r="E17" s="79" t="s">
         <v>330</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F17" s="79" t="s">
         <v>329</v>
       </c>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="3:7" ht="21" customHeight="1">
-      <c r="C18" s="68"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="3:7" ht="21">
-      <c r="C19" s="68"/>
-      <c r="D19" s="75"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="78"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="68"/>
-      <c r="D20" s="75"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="77"/>
       <c r="E20" s="43"/>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="72" t="s">
         <v>302</v>
       </c>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="68"/>
-      <c r="D21" s="88"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="44"/>
-      <c r="F21" s="81"/>
+      <c r="F21" s="80"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="3:7" ht="21" customHeight="1">
-      <c r="C22" s="68"/>
-      <c r="D22" s="74" t="s">
+      <c r="C22" s="74"/>
+      <c r="D22" s="76" t="s">
         <v>300</v>
       </c>
       <c r="E22" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="F22" s="80" t="s">
+      <c r="F22" s="79" t="s">
         <v>305</v>
       </c>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="3:7" ht="21" customHeight="1">
-      <c r="C23" s="68"/>
-      <c r="D23" s="75"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="F23" s="79"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="3:7" ht="21">
-      <c r="C24" s="68"/>
-      <c r="D24" s="75"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="78"/>
+      <c r="F24" s="70"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="68"/>
-      <c r="D25" s="75"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="43"/>
-      <c r="F25" s="77" t="s">
+      <c r="F25" s="72" t="s">
         <v>98</v>
       </c>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="68"/>
-      <c r="D26" s="75"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="43"/>
-      <c r="F26" s="81"/>
+      <c r="F26" s="80"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="3:7" ht="21" customHeight="1">
-      <c r="C27" s="68"/>
-      <c r="D27" s="74" t="s">
+      <c r="C27" s="74"/>
+      <c r="D27" s="76" t="s">
         <v>306</v>
       </c>
       <c r="E27" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="F27" s="80" t="s">
+      <c r="F27" s="79" t="s">
         <v>304</v>
       </c>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="3:7" ht="21" customHeight="1">
-      <c r="C28" s="68"/>
-      <c r="D28" s="75"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="F28" s="79"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="3:7" ht="21" customHeight="1">
-      <c r="C29" s="68"/>
-      <c r="D29" s="75"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="77"/>
       <c r="E29" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="F29" s="79"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="3:7" ht="21">
-      <c r="C30" s="68"/>
-      <c r="D30" s="75"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="77"/>
       <c r="E30" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="78"/>
+      <c r="F30" s="70"/>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="68"/>
-      <c r="D31" s="75"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="77"/>
       <c r="E31" s="43"/>
-      <c r="F31" s="77" t="s">
+      <c r="F31" s="72" t="s">
         <v>302</v>
       </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="3:7">
-      <c r="C32" s="68"/>
-      <c r="D32" s="75"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="43"/>
-      <c r="F32" s="81"/>
+      <c r="F32" s="80"/>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="3:7" ht="21" customHeight="1">
-      <c r="C33" s="68"/>
-      <c r="D33" s="74" t="s">
+      <c r="C33" s="74"/>
+      <c r="D33" s="76" t="s">
         <v>102</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="F33" s="80" t="s">
+      <c r="F33" s="79" t="s">
         <v>104</v>
       </c>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="3:7" ht="21">
-      <c r="C34" s="68"/>
-      <c r="D34" s="75"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="78"/>
+      <c r="F34" s="70"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="3:7">
-      <c r="C35" s="68"/>
-      <c r="D35" s="75"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="77"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="77" t="s">
+      <c r="F35" s="72" t="s">
         <v>98</v>
       </c>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="3:7">
-      <c r="C36" s="68"/>
-      <c r="D36" s="88"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="87"/>
       <c r="E36" s="21"/>
-      <c r="F36" s="81"/>
+      <c r="F36" s="80"/>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="3:7" ht="21" customHeight="1">
-      <c r="C37" s="68"/>
-      <c r="D37" s="74" t="s">
+      <c r="C37" s="74"/>
+      <c r="D37" s="76" t="s">
         <v>308</v>
       </c>
-      <c r="E37" s="80" t="s">
+      <c r="E37" s="79" t="s">
         <v>322</v>
       </c>
-      <c r="F37" s="80" t="s">
+      <c r="F37" s="79" t="s">
         <v>309</v>
       </c>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="3:7" ht="21" customHeight="1">
-      <c r="C38" s="68"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="79"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="73"/>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="3:7" ht="21">
-      <c r="C39" s="68"/>
-      <c r="D39" s="75"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="78"/>
+      <c r="F39" s="70"/>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="3:7">
-      <c r="C40" s="68"/>
-      <c r="D40" s="75"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="43"/>
-      <c r="F40" s="77" t="s">
+      <c r="F40" s="72" t="s">
         <v>302</v>
       </c>
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="3:7">
-      <c r="C41" s="68"/>
-      <c r="D41" s="88"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="87"/>
       <c r="E41" s="44"/>
-      <c r="F41" s="81"/>
+      <c r="F41" s="80"/>
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="3:7" ht="21" customHeight="1">
-      <c r="C42" s="68"/>
-      <c r="D42" s="74" t="s">
+      <c r="C42" s="74"/>
+      <c r="D42" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="E42" s="80" t="s">
+      <c r="E42" s="79" t="s">
         <v>326</v>
       </c>
-      <c r="F42" s="80" t="s">
+      <c r="F42" s="79" t="s">
         <v>310</v>
       </c>
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="3:7" ht="21" customHeight="1">
-      <c r="C43" s="68"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="3:7" ht="21" customHeight="1">
-      <c r="C44" s="68"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="79"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="73"/>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="3:7" ht="21">
-      <c r="C45" s="68"/>
-      <c r="D45" s="75"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="77"/>
       <c r="E45" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F45" s="78"/>
+      <c r="F45" s="70"/>
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="3:7">
-      <c r="C46" s="68"/>
-      <c r="D46" s="75"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="77"/>
       <c r="E46" s="43"/>
-      <c r="F46" s="77" t="s">
+      <c r="F46" s="72" t="s">
         <v>98</v>
       </c>
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="3:7">
-      <c r="C47" s="68"/>
-      <c r="D47" s="88"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="87"/>
       <c r="E47" s="44"/>
-      <c r="F47" s="81"/>
+      <c r="F47" s="80"/>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="3:7" ht="21" customHeight="1">
-      <c r="C48" s="68"/>
-      <c r="D48" s="74" t="s">
+      <c r="C48" s="74"/>
+      <c r="D48" s="76" t="s">
         <v>311</v>
       </c>
-      <c r="E48" s="80" t="s">
+      <c r="E48" s="79" t="s">
         <v>325</v>
       </c>
-      <c r="F48" s="80" t="s">
+      <c r="F48" s="79" t="s">
         <v>312</v>
       </c>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="3:7" ht="21" customHeight="1">
-      <c r="C49" s="68"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="3:7" ht="21" customHeight="1">
-      <c r="C50" s="68"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="79"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="73"/>
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="3:7" ht="21">
-      <c r="C51" s="68"/>
-      <c r="D51" s="75"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F51" s="78"/>
+      <c r="F51" s="70"/>
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="3:7">
-      <c r="C52" s="68"/>
-      <c r="D52" s="75"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="77"/>
       <c r="E52" s="43"/>
-      <c r="F52" s="77" t="s">
+      <c r="F52" s="72" t="s">
         <v>302</v>
       </c>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="3:7">
-      <c r="C53" s="68"/>
-      <c r="D53" s="88"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="87"/>
       <c r="E53" s="44"/>
-      <c r="F53" s="81"/>
+      <c r="F53" s="80"/>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="3:7" ht="21" customHeight="1">
-      <c r="C54" s="68"/>
-      <c r="D54" s="74" t="s">
+      <c r="C54" s="74"/>
+      <c r="D54" s="76" t="s">
         <v>313</v>
       </c>
-      <c r="E54" s="80" t="s">
+      <c r="E54" s="79" t="s">
         <v>323</v>
       </c>
-      <c r="F54" s="80" t="s">
+      <c r="F54" s="79" t="s">
         <v>292</v>
       </c>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="3:7" ht="21" customHeight="1">
-      <c r="C55" s="68"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="79"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="73"/>
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="3:7" ht="21">
-      <c r="C56" s="68"/>
-      <c r="D56" s="75"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="77"/>
       <c r="E56" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F56" s="78"/>
+      <c r="F56" s="70"/>
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="3:7">
-      <c r="C57" s="68"/>
-      <c r="D57" s="75"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="43"/>
-      <c r="F57" s="77" t="s">
+      <c r="F57" s="72" t="s">
         <v>98</v>
       </c>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="3:7">
-      <c r="C58" s="68"/>
-      <c r="D58" s="88"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="87"/>
       <c r="E58" s="44"/>
-      <c r="F58" s="81"/>
+      <c r="F58" s="80"/>
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="3:7" ht="21" customHeight="1">
-      <c r="C59" s="68"/>
-      <c r="D59" s="74" t="s">
+      <c r="C59" s="74"/>
+      <c r="D59" s="76" t="s">
         <v>327</v>
       </c>
-      <c r="E59" s="80" t="s">
+      <c r="E59" s="79" t="s">
         <v>324</v>
       </c>
-      <c r="F59" s="80" t="s">
+      <c r="F59" s="79" t="s">
         <v>314</v>
       </c>
       <c r="G59" s="10"/>
     </row>
     <row r="60" spans="3:7" ht="21" customHeight="1">
-      <c r="C60" s="68"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="79"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="73"/>
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="3:7" ht="21">
-      <c r="C61" s="68"/>
-      <c r="D61" s="75"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="77"/>
       <c r="E61" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F61" s="78"/>
+      <c r="F61" s="70"/>
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="3:7">
-      <c r="C62" s="68"/>
-      <c r="D62" s="75"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="77"/>
       <c r="E62" s="43"/>
-      <c r="F62" s="77" t="s">
+      <c r="F62" s="72" t="s">
         <v>302</v>
       </c>
       <c r="G62" s="10"/>
     </row>
     <row r="63" spans="3:7">
-      <c r="C63" s="68"/>
-      <c r="D63" s="88"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="87"/>
       <c r="E63" s="44"/>
-      <c r="F63" s="81"/>
+      <c r="F63" s="80"/>
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="3:7" ht="21" customHeight="1">
-      <c r="C64" s="68"/>
-      <c r="D64" s="74" t="s">
+      <c r="C64" s="74"/>
+      <c r="D64" s="76" t="s">
         <v>315</v>
       </c>
-      <c r="E64" s="80" t="s">
+      <c r="E64" s="79" t="s">
         <v>318</v>
       </c>
-      <c r="F64" s="80" t="s">
+      <c r="F64" s="79" t="s">
         <v>316</v>
       </c>
       <c r="G64" s="10"/>
     </row>
     <row r="65" spans="3:7" ht="21" customHeight="1">
-      <c r="C65" s="68"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="79"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="73"/>
       <c r="G65" s="10"/>
     </row>
     <row r="66" spans="3:7" ht="21">
-      <c r="C66" s="68"/>
-      <c r="D66" s="75"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="77"/>
       <c r="E66" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F66" s="78"/>
+      <c r="F66" s="70"/>
       <c r="G66" s="10"/>
     </row>
     <row r="67" spans="3:7">
-      <c r="C67" s="68"/>
-      <c r="D67" s="75"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="77"/>
       <c r="E67" s="43"/>
-      <c r="F67" s="77" t="s">
+      <c r="F67" s="72" t="s">
         <v>98</v>
       </c>
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="3:7">
-      <c r="C68" s="68"/>
-      <c r="D68" s="88"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="87"/>
       <c r="E68" s="44"/>
-      <c r="F68" s="81"/>
+      <c r="F68" s="80"/>
       <c r="G68" s="10"/>
     </row>
     <row r="69" spans="3:7" ht="21" customHeight="1">
-      <c r="C69" s="68"/>
-      <c r="D69" s="74" t="s">
+      <c r="C69" s="74"/>
+      <c r="D69" s="76" t="s">
         <v>331</v>
       </c>
-      <c r="E69" s="80" t="s">
+      <c r="E69" s="79" t="s">
         <v>318</v>
       </c>
-      <c r="F69" s="80" t="s">
+      <c r="F69" s="79" t="s">
         <v>317</v>
       </c>
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="3:7" ht="21" customHeight="1">
-      <c r="C70" s="68"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="79"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="73"/>
       <c r="G70" s="10"/>
     </row>
     <row r="71" spans="3:7" ht="21">
-      <c r="C71" s="68"/>
-      <c r="D71" s="75"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="77"/>
       <c r="E71" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F71" s="78"/>
+      <c r="F71" s="70"/>
       <c r="G71" s="10"/>
     </row>
     <row r="72" spans="3:7">
-      <c r="C72" s="68"/>
-      <c r="D72" s="75"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="77"/>
       <c r="E72" s="43"/>
-      <c r="F72" s="77" t="s">
+      <c r="F72" s="72" t="s">
         <v>302</v>
       </c>
       <c r="G72" s="10"/>
     </row>
     <row r="73" spans="3:7">
-      <c r="C73" s="68"/>
-      <c r="D73" s="88"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="87"/>
       <c r="E73" s="44"/>
-      <c r="F73" s="81"/>
+      <c r="F73" s="80"/>
       <c r="G73" s="10"/>
     </row>
     <row r="74" spans="3:7" ht="21" customHeight="1">
-      <c r="C74" s="68"/>
-      <c r="D74" s="74" t="s">
+      <c r="C74" s="74"/>
+      <c r="D74" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="E74" s="80" t="s">
+      <c r="E74" s="79" t="s">
         <v>319</v>
       </c>
-      <c r="F74" s="80" t="s">
+      <c r="F74" s="79" t="s">
         <v>296</v>
       </c>
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="3:7" ht="21" customHeight="1">
-      <c r="C75" s="68"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="79"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="73"/>
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="3:7" ht="21">
-      <c r="C76" s="68"/>
-      <c r="D76" s="75"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="77"/>
       <c r="E76" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F76" s="78"/>
+      <c r="F76" s="70"/>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="3:7">
-      <c r="C77" s="68"/>
-      <c r="D77" s="75"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="77"/>
       <c r="E77" s="43"/>
-      <c r="F77" s="77" t="s">
+      <c r="F77" s="72" t="s">
         <v>98</v>
       </c>
       <c r="G77" s="10"/>
     </row>
     <row r="78" spans="3:7">
-      <c r="C78" s="68"/>
-      <c r="D78" s="88"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="87"/>
       <c r="E78" s="44"/>
-      <c r="F78" s="81"/>
+      <c r="F78" s="80"/>
       <c r="G78" s="10"/>
     </row>
     <row r="79" spans="3:7" ht="21" customHeight="1">
-      <c r="C79" s="68"/>
-      <c r="D79" s="74" t="s">
+      <c r="C79" s="74"/>
+      <c r="D79" s="76" t="s">
         <v>332</v>
       </c>
-      <c r="E79" s="80" t="s">
+      <c r="E79" s="79" t="s">
         <v>320</v>
       </c>
-      <c r="F79" s="80" t="s">
+      <c r="F79" s="79" t="s">
         <v>321</v>
       </c>
       <c r="G79" s="10"/>
     </row>
     <row r="80" spans="3:7" ht="21" customHeight="1">
-      <c r="C80" s="68"/>
-      <c r="D80" s="75"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="79"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="73"/>
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="3:7" ht="21">
-      <c r="C81" s="68"/>
-      <c r="D81" s="75"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="77"/>
       <c r="E81" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F81" s="78"/>
+      <c r="F81" s="70"/>
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="3:7">
-      <c r="C82" s="68"/>
-      <c r="D82" s="75"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="77"/>
       <c r="E82" s="43"/>
-      <c r="F82" s="77" t="s">
+      <c r="F82" s="72" t="s">
         <v>302</v>
       </c>
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="3:7">
-      <c r="C83" s="68"/>
-      <c r="D83" s="88"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="87"/>
       <c r="E83" s="44"/>
-      <c r="F83" s="81"/>
+      <c r="F83" s="80"/>
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="3:7" ht="21">
-      <c r="C84" s="68"/>
-      <c r="D84" s="87" t="s">
+      <c r="C84" s="74"/>
+      <c r="D84" s="86" t="s">
         <v>277</v>
       </c>
       <c r="E84" s="32" t="s">
@@ -7767,8 +7767,8 @@
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="3:7" ht="21">
-      <c r="C85" s="68"/>
-      <c r="D85" s="75"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="77"/>
       <c r="E85" s="32" t="s">
         <v>279</v>
       </c>
@@ -7778,8 +7778,8 @@
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="3:7" ht="21">
-      <c r="C86" s="68"/>
-      <c r="D86" s="75"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="77"/>
       <c r="E86" s="32" t="s">
         <v>283</v>
       </c>
@@ -7787,17 +7787,17 @@
       <c r="G86" s="10"/>
     </row>
     <row r="87" spans="3:7">
-      <c r="C87" s="68"/>
-      <c r="D87" s="88"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="87"/>
       <c r="E87" s="32"/>
       <c r="F87" s="32"/>
       <c r="G87" s="30"/>
     </row>
     <row r="88" spans="3:7" ht="21" customHeight="1">
-      <c r="C88" s="68" t="s">
+      <c r="C88" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="83" t="s">
+      <c r="D88" s="88" t="s">
         <v>50</v>
       </c>
       <c r="E88" s="23" t="s">
@@ -7809,8 +7809,8 @@
       <c r="G88" s="9"/>
     </row>
     <row r="89" spans="3:7" ht="21">
-      <c r="C89" s="68"/>
-      <c r="D89" s="84"/>
+      <c r="C89" s="74"/>
+      <c r="D89" s="81"/>
       <c r="E89" s="31" t="s">
         <v>106</v>
       </c>
@@ -7820,8 +7820,8 @@
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="3:7" ht="21">
-      <c r="C90" s="68"/>
-      <c r="D90" s="84"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="81"/>
       <c r="E90" s="32" t="s">
         <v>111</v>
       </c>
@@ -7829,24 +7829,24 @@
       <c r="G90" s="10"/>
     </row>
     <row r="91" spans="3:7">
-      <c r="C91" s="68"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="79" t="s">
+      <c r="C91" s="74"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="73" t="s">
         <v>112</v>
       </c>
       <c r="F91" s="31"/>
       <c r="G91" s="10"/>
     </row>
     <row r="92" spans="3:7">
-      <c r="C92" s="68"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="81"/>
+      <c r="C92" s="74"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="80"/>
       <c r="F92" s="51"/>
       <c r="G92" s="30"/>
     </row>
     <row r="93" spans="3:7" ht="21">
-      <c r="C93" s="68"/>
-      <c r="D93" s="74" t="s">
+      <c r="C93" s="74"/>
+      <c r="D93" s="76" t="s">
         <v>379</v>
       </c>
       <c r="E93" s="23" t="s">
@@ -7856,8 +7856,8 @@
       <c r="G93" s="9"/>
     </row>
     <row r="94" spans="3:7" ht="21">
-      <c r="C94" s="68"/>
-      <c r="D94" s="75"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="77"/>
       <c r="E94" s="56" t="s">
         <v>383</v>
       </c>
@@ -7865,8 +7865,8 @@
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="3:7" ht="21">
-      <c r="C95" s="68"/>
-      <c r="D95" s="76"/>
+      <c r="C95" s="74"/>
+      <c r="D95" s="78"/>
       <c r="E95" s="57" t="s">
         <v>381</v>
       </c>
@@ -7876,7 +7876,7 @@
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="3:7" ht="21">
-      <c r="C96" s="68"/>
+      <c r="C96" s="74"/>
       <c r="D96" s="48" t="s">
         <v>64</v>
       </c>
@@ -7889,7 +7889,7 @@
       <c r="G96" s="11"/>
     </row>
     <row r="97" spans="3:7" ht="21">
-      <c r="C97" s="68"/>
+      <c r="C97" s="74"/>
       <c r="D97" s="48" t="s">
         <v>293</v>
       </c>
@@ -7902,8 +7902,8 @@
       <c r="G97" s="13"/>
     </row>
     <row r="98" spans="3:7" ht="21" customHeight="1">
-      <c r="C98" s="68"/>
-      <c r="D98" s="84" t="s">
+      <c r="C98" s="74"/>
+      <c r="D98" s="81" t="s">
         <v>109</v>
       </c>
       <c r="E98" s="22" t="s">
@@ -7915,8 +7915,8 @@
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="3:7" ht="21">
-      <c r="C99" s="68"/>
-      <c r="D99" s="84"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="81"/>
       <c r="E99" s="22"/>
       <c r="F99" s="22" t="s">
         <v>115</v>
@@ -7924,8 +7924,8 @@
       <c r="G99" s="10"/>
     </row>
     <row r="100" spans="3:7" ht="21">
-      <c r="C100" s="68"/>
-      <c r="D100" s="74" t="s">
+      <c r="C100" s="74"/>
+      <c r="D100" s="76" t="s">
         <v>282</v>
       </c>
       <c r="E100" s="32" t="s">
@@ -7935,8 +7935,8 @@
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="3:7" ht="21">
-      <c r="C101" s="73"/>
-      <c r="D101" s="88"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="87"/>
       <c r="E101" s="32" t="s">
         <v>285</v>
       </c>
@@ -7946,7 +7946,7 @@
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="3:7" ht="21">
-      <c r="C102" s="72" t="s">
+      <c r="C102" s="84" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="16" t="s">
@@ -7959,8 +7959,8 @@
       <c r="G102" s="10"/>
     </row>
     <row r="103" spans="3:7" ht="21" customHeight="1">
-      <c r="C103" s="68"/>
-      <c r="D103" s="74" t="s">
+      <c r="C103" s="74"/>
+      <c r="D103" s="76" t="s">
         <v>48</v>
       </c>
       <c r="E103" s="23" t="s">
@@ -7970,8 +7970,8 @@
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="3:7" ht="21">
-      <c r="C104" s="73"/>
-      <c r="D104" s="75"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="77"/>
       <c r="E104" s="20" t="s">
         <v>119</v>
       </c>
@@ -7981,10 +7981,10 @@
       <c r="G104" s="30"/>
     </row>
     <row r="105" spans="3:7" ht="21">
-      <c r="C105" s="72" t="s">
+      <c r="C105" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D105" s="83" t="s">
+      <c r="D105" s="88" t="s">
         <v>46</v>
       </c>
       <c r="E105" s="23" t="s">
@@ -7994,8 +7994,8 @@
       <c r="G105" s="9"/>
     </row>
     <row r="106" spans="3:7" ht="21">
-      <c r="C106" s="68"/>
-      <c r="D106" s="84"/>
+      <c r="C106" s="74"/>
+      <c r="D106" s="81"/>
       <c r="E106" s="18" t="s">
         <v>122</v>
       </c>
@@ -8003,24 +8003,24 @@
       <c r="G106" s="10"/>
     </row>
     <row r="107" spans="3:7">
-      <c r="C107" s="68"/>
-      <c r="D107" s="84"/>
-      <c r="E107" s="77" t="s">
+      <c r="C107" s="74"/>
+      <c r="D107" s="81"/>
+      <c r="E107" s="72" t="s">
         <v>123</v>
       </c>
       <c r="F107" s="18"/>
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="3:7">
-      <c r="C108" s="68"/>
-      <c r="D108" s="84"/>
-      <c r="E108" s="78"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="81"/>
+      <c r="E108" s="70"/>
       <c r="F108" s="18"/>
       <c r="G108" s="10"/>
     </row>
     <row r="109" spans="3:7" ht="21">
-      <c r="C109" s="68"/>
-      <c r="D109" s="84"/>
+      <c r="C109" s="74"/>
+      <c r="D109" s="81"/>
       <c r="E109" s="32" t="s">
         <v>124</v>
       </c>
@@ -8030,8 +8030,8 @@
       <c r="G109" s="30"/>
     </row>
     <row r="110" spans="3:7" ht="21">
-      <c r="C110" s="68"/>
-      <c r="D110" s="84" t="s">
+      <c r="C110" s="74"/>
+      <c r="D110" s="81" t="s">
         <v>47</v>
       </c>
       <c r="E110" s="23" t="s">
@@ -8041,25 +8041,25 @@
       <c r="G110" s="9"/>
     </row>
     <row r="111" spans="3:7">
-      <c r="C111" s="68"/>
-      <c r="D111" s="84"/>
-      <c r="E111" s="77" t="s">
+      <c r="C111" s="74"/>
+      <c r="D111" s="81"/>
+      <c r="E111" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="F111" s="77" t="s">
+      <c r="F111" s="72" t="s">
         <v>128</v>
       </c>
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="3:7">
-      <c r="C112" s="68"/>
-      <c r="D112" s="84"/>
-      <c r="E112" s="81"/>
-      <c r="F112" s="81"/>
+      <c r="C112" s="74"/>
+      <c r="D112" s="81"/>
+      <c r="E112" s="80"/>
+      <c r="F112" s="80"/>
       <c r="G112" s="11"/>
     </row>
     <row r="113" spans="3:7" ht="21">
-      <c r="C113" s="68"/>
+      <c r="C113" s="74"/>
       <c r="D113" s="45" t="s">
         <v>293</v>
       </c>
@@ -8072,8 +8072,8 @@
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="3:7" ht="21">
-      <c r="C114" s="68"/>
-      <c r="D114" s="84" t="s">
+      <c r="C114" s="74"/>
+      <c r="D114" s="81" t="s">
         <v>287</v>
       </c>
       <c r="E114" s="49" t="s">
@@ -8083,8 +8083,8 @@
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="3:7" ht="21">
-      <c r="C115" s="68"/>
-      <c r="D115" s="84"/>
+      <c r="C115" s="74"/>
+      <c r="D115" s="81"/>
       <c r="E115" s="49" t="s">
         <v>289</v>
       </c>
@@ -8094,8 +8094,8 @@
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="3:7" ht="21">
-      <c r="C116" s="68"/>
-      <c r="D116" s="84"/>
+      <c r="C116" s="74"/>
+      <c r="D116" s="81"/>
       <c r="E116" s="49" t="s">
         <v>283</v>
       </c>
@@ -8103,17 +8103,17 @@
       <c r="G116" s="10"/>
     </row>
     <row r="117" spans="3:7">
-      <c r="C117" s="73"/>
-      <c r="D117" s="86"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="82"/>
       <c r="E117" s="50"/>
       <c r="F117" s="50"/>
       <c r="G117" s="11"/>
     </row>
     <row r="118" spans="3:7" ht="21">
-      <c r="C118" s="72" t="s">
+      <c r="C118" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D118" s="75" t="s">
+      <c r="D118" s="77" t="s">
         <v>51</v>
       </c>
       <c r="E118" s="18" t="s">
@@ -8125,8 +8125,8 @@
       <c r="G118" s="13"/>
     </row>
     <row r="119" spans="3:7" ht="21">
-      <c r="C119" s="68"/>
-      <c r="D119" s="75"/>
+      <c r="C119" s="74"/>
+      <c r="D119" s="77"/>
       <c r="E119" s="24" t="s">
         <v>377</v>
       </c>
@@ -8136,26 +8136,26 @@
       <c r="G119" s="10"/>
     </row>
     <row r="120" spans="3:7" ht="21" customHeight="1">
-      <c r="C120" s="68"/>
-      <c r="D120" s="75"/>
+      <c r="C120" s="74"/>
+      <c r="D120" s="77"/>
       <c r="E120" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F120" s="77" t="s">
+      <c r="F120" s="72" t="s">
         <v>196</v>
       </c>
       <c r="G120" s="10"/>
     </row>
     <row r="121" spans="3:7">
-      <c r="C121" s="68"/>
-      <c r="D121" s="76"/>
+      <c r="C121" s="74"/>
+      <c r="D121" s="78"/>
       <c r="E121" s="24"/>
-      <c r="F121" s="78"/>
+      <c r="F121" s="70"/>
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="3:7" ht="18" customHeight="1">
-      <c r="C122" s="68"/>
-      <c r="D122" s="74" t="s">
+      <c r="C122" s="74"/>
+      <c r="D122" s="76" t="s">
         <v>144</v>
       </c>
       <c r="E122" s="24" t="s">
@@ -8167,8 +8167,8 @@
       <c r="G122" s="10"/>
     </row>
     <row r="123" spans="3:7" ht="21">
-      <c r="C123" s="68"/>
-      <c r="D123" s="75"/>
+      <c r="C123" s="74"/>
+      <c r="D123" s="77"/>
       <c r="E123" s="24" t="s">
         <v>378</v>
       </c>
@@ -8178,46 +8178,46 @@
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="3:7" ht="21">
-      <c r="C124" s="68"/>
-      <c r="D124" s="75"/>
+      <c r="C124" s="74"/>
+      <c r="D124" s="77"/>
       <c r="E124" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F124" s="77" t="s">
+      <c r="F124" s="72" t="s">
         <v>195</v>
       </c>
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="3:7">
-      <c r="C125" s="68"/>
-      <c r="D125" s="76"/>
+      <c r="C125" s="74"/>
+      <c r="D125" s="78"/>
       <c r="E125" s="24"/>
-      <c r="F125" s="78"/>
+      <c r="F125" s="70"/>
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="3:7" ht="21">
-      <c r="C126" s="68"/>
-      <c r="D126" s="74" t="s">
+      <c r="C126" s="74"/>
+      <c r="D126" s="76" t="s">
         <v>421</v>
       </c>
       <c r="E126" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="F126" s="97"/>
+      <c r="F126" s="69"/>
       <c r="G126" s="10"/>
     </row>
     <row r="127" spans="3:7" ht="21">
-      <c r="C127" s="68"/>
-      <c r="D127" s="75"/>
+      <c r="C127" s="74"/>
+      <c r="D127" s="77"/>
       <c r="E127" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="F127" s="78"/>
+      <c r="F127" s="70"/>
       <c r="G127" s="10"/>
     </row>
     <row r="128" spans="3:7" ht="21">
-      <c r="C128" s="68"/>
-      <c r="D128" s="75"/>
+      <c r="C128" s="74"/>
+      <c r="D128" s="77"/>
       <c r="E128" s="52" t="s">
         <v>399</v>
       </c>
@@ -8225,9 +8225,9 @@
       <c r="G128" s="10"/>
     </row>
     <row r="129" spans="3:7" ht="19" customHeight="1">
-      <c r="C129" s="68"/>
-      <c r="D129" s="75"/>
-      <c r="E129" s="77" t="s">
+      <c r="C129" s="74"/>
+      <c r="D129" s="77"/>
+      <c r="E129" s="72" t="s">
         <v>423</v>
       </c>
       <c r="F129" s="71" t="s">
@@ -8236,31 +8236,31 @@
       <c r="G129" s="10"/>
     </row>
     <row r="130" spans="3:7">
-      <c r="C130" s="68"/>
-      <c r="D130" s="75"/>
-      <c r="E130" s="78"/>
+      <c r="C130" s="74"/>
+      <c r="D130" s="77"/>
+      <c r="E130" s="70"/>
       <c r="F130" s="71"/>
       <c r="G130" s="10"/>
     </row>
     <row r="131" spans="3:7" ht="22" customHeight="1">
-      <c r="C131" s="68"/>
-      <c r="D131" s="75"/>
-      <c r="E131" s="77" t="s">
+      <c r="C131" s="74"/>
+      <c r="D131" s="77"/>
+      <c r="E131" s="72" t="s">
         <v>424</v>
       </c>
       <c r="F131" s="56"/>
       <c r="G131" s="10"/>
     </row>
     <row r="132" spans="3:7">
-      <c r="C132" s="68"/>
-      <c r="D132" s="75"/>
-      <c r="E132" s="78"/>
+      <c r="C132" s="74"/>
+      <c r="D132" s="77"/>
+      <c r="E132" s="70"/>
       <c r="F132" s="56"/>
       <c r="G132" s="10"/>
     </row>
     <row r="133" spans="3:7" ht="21">
-      <c r="C133" s="68"/>
-      <c r="D133" s="75"/>
+      <c r="C133" s="74"/>
+      <c r="D133" s="77"/>
       <c r="E133" s="52" t="s">
         <v>350</v>
       </c>
@@ -8268,8 +8268,8 @@
       <c r="G133" s="10"/>
     </row>
     <row r="134" spans="3:7" ht="21">
-      <c r="C134" s="68"/>
-      <c r="D134" s="76"/>
+      <c r="C134" s="74"/>
+      <c r="D134" s="78"/>
       <c r="E134" s="51" t="s">
         <v>402</v>
       </c>
@@ -8277,28 +8277,28 @@
       <c r="G134" s="10"/>
     </row>
     <row r="135" spans="3:7" ht="21">
-      <c r="C135" s="68"/>
-      <c r="D135" s="74" t="s">
+      <c r="C135" s="74"/>
+      <c r="D135" s="76" t="s">
         <v>420</v>
       </c>
       <c r="E135" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="F135" s="97"/>
+      <c r="F135" s="69"/>
       <c r="G135" s="10"/>
     </row>
     <row r="136" spans="3:7" ht="21">
-      <c r="C136" s="68"/>
-      <c r="D136" s="75"/>
+      <c r="C136" s="74"/>
+      <c r="D136" s="77"/>
       <c r="E136" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="F136" s="78"/>
+      <c r="F136" s="70"/>
       <c r="G136" s="10"/>
     </row>
     <row r="137" spans="3:7" ht="21">
-      <c r="C137" s="68"/>
-      <c r="D137" s="75"/>
+      <c r="C137" s="74"/>
+      <c r="D137" s="77"/>
       <c r="E137" s="52" t="s">
         <v>399</v>
       </c>
@@ -8306,9 +8306,9 @@
       <c r="G137" s="10"/>
     </row>
     <row r="138" spans="3:7" ht="19" customHeight="1">
-      <c r="C138" s="68"/>
-      <c r="D138" s="75"/>
-      <c r="E138" s="77" t="s">
+      <c r="C138" s="74"/>
+      <c r="D138" s="77"/>
+      <c r="E138" s="72" t="s">
         <v>423</v>
       </c>
       <c r="F138" s="71" t="s">
@@ -8317,31 +8317,31 @@
       <c r="G138" s="10"/>
     </row>
     <row r="139" spans="3:7">
-      <c r="C139" s="68"/>
-      <c r="D139" s="75"/>
-      <c r="E139" s="78"/>
+      <c r="C139" s="74"/>
+      <c r="D139" s="77"/>
+      <c r="E139" s="70"/>
       <c r="F139" s="71"/>
       <c r="G139" s="10"/>
     </row>
     <row r="140" spans="3:7" ht="22" customHeight="1">
-      <c r="C140" s="68"/>
-      <c r="D140" s="75"/>
-      <c r="E140" s="77" t="s">
+      <c r="C140" s="74"/>
+      <c r="D140" s="77"/>
+      <c r="E140" s="72" t="s">
         <v>426</v>
       </c>
       <c r="F140" s="56"/>
       <c r="G140" s="10"/>
     </row>
     <row r="141" spans="3:7">
-      <c r="C141" s="68"/>
-      <c r="D141" s="75"/>
-      <c r="E141" s="78"/>
+      <c r="C141" s="74"/>
+      <c r="D141" s="77"/>
+      <c r="E141" s="70"/>
       <c r="F141" s="56"/>
       <c r="G141" s="10"/>
     </row>
     <row r="142" spans="3:7" ht="21">
-      <c r="C142" s="68"/>
-      <c r="D142" s="75"/>
+      <c r="C142" s="74"/>
+      <c r="D142" s="77"/>
       <c r="E142" s="52" t="s">
         <v>350</v>
       </c>
@@ -8349,8 +8349,8 @@
       <c r="G142" s="10"/>
     </row>
     <row r="143" spans="3:7" ht="21">
-      <c r="C143" s="68"/>
-      <c r="D143" s="76"/>
+      <c r="C143" s="74"/>
+      <c r="D143" s="78"/>
       <c r="E143" s="51" t="s">
         <v>402</v>
       </c>
@@ -8358,630 +8358,630 @@
       <c r="G143" s="10"/>
     </row>
     <row r="144" spans="3:7" ht="21" customHeight="1">
-      <c r="C144" s="68"/>
-      <c r="D144" s="74" t="s">
+      <c r="C144" s="74"/>
+      <c r="D144" s="76" t="s">
         <v>137</v>
       </c>
       <c r="E144" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F144" s="80" t="s">
+      <c r="F144" s="79" t="s">
         <v>154</v>
       </c>
       <c r="G144" s="10"/>
     </row>
     <row r="145" spans="3:7" ht="21" customHeight="1">
-      <c r="C145" s="68"/>
-      <c r="D145" s="75"/>
+      <c r="C145" s="74"/>
+      <c r="D145" s="77"/>
       <c r="E145" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="F145" s="79"/>
+      <c r="F145" s="73"/>
       <c r="G145" s="10"/>
     </row>
     <row r="146" spans="3:7" ht="21">
-      <c r="C146" s="68"/>
-      <c r="D146" s="75"/>
+      <c r="C146" s="74"/>
+      <c r="D146" s="77"/>
       <c r="E146" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F146" s="78"/>
+      <c r="F146" s="70"/>
       <c r="G146" s="10"/>
     </row>
     <row r="147" spans="3:7" ht="20" customHeight="1">
-      <c r="C147" s="68"/>
-      <c r="D147" s="75"/>
+      <c r="C147" s="74"/>
+      <c r="D147" s="77"/>
       <c r="E147" s="18"/>
-      <c r="F147" s="77" t="s">
+      <c r="F147" s="72" t="s">
         <v>140</v>
       </c>
       <c r="G147" s="10"/>
     </row>
     <row r="148" spans="3:7">
-      <c r="C148" s="68"/>
-      <c r="D148" s="75"/>
+      <c r="C148" s="74"/>
+      <c r="D148" s="77"/>
       <c r="E148" s="18"/>
-      <c r="F148" s="81"/>
+      <c r="F148" s="80"/>
       <c r="G148" s="10"/>
     </row>
     <row r="149" spans="3:7" ht="21" customHeight="1">
-      <c r="C149" s="68"/>
-      <c r="D149" s="74" t="s">
+      <c r="C149" s="74"/>
+      <c r="D149" s="76" t="s">
         <v>333</v>
       </c>
-      <c r="E149" s="77" t="s">
+      <c r="E149" s="72" t="s">
         <v>335</v>
       </c>
-      <c r="F149" s="80" t="s">
+      <c r="F149" s="79" t="s">
         <v>334</v>
       </c>
       <c r="G149" s="10"/>
     </row>
     <row r="150" spans="3:7" ht="21" customHeight="1">
-      <c r="C150" s="68"/>
-      <c r="D150" s="75"/>
-      <c r="E150" s="78"/>
-      <c r="F150" s="79"/>
+      <c r="C150" s="74"/>
+      <c r="D150" s="77"/>
+      <c r="E150" s="70"/>
+      <c r="F150" s="73"/>
       <c r="G150" s="10"/>
     </row>
     <row r="151" spans="3:7" ht="21" customHeight="1">
-      <c r="C151" s="68"/>
-      <c r="D151" s="75"/>
+      <c r="C151" s="74"/>
+      <c r="D151" s="77"/>
       <c r="E151" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="F151" s="79"/>
+      <c r="F151" s="73"/>
       <c r="G151" s="10"/>
     </row>
     <row r="152" spans="3:7" ht="21">
-      <c r="C152" s="68"/>
-      <c r="D152" s="75"/>
+      <c r="C152" s="74"/>
+      <c r="D152" s="77"/>
       <c r="E152" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F152" s="78"/>
+      <c r="F152" s="70"/>
       <c r="G152" s="10"/>
     </row>
     <row r="153" spans="3:7" ht="20" customHeight="1">
-      <c r="C153" s="68"/>
-      <c r="D153" s="75"/>
+      <c r="C153" s="74"/>
+      <c r="D153" s="77"/>
       <c r="E153" s="43"/>
-      <c r="F153" s="77" t="s">
+      <c r="F153" s="72" t="s">
         <v>155</v>
       </c>
       <c r="G153" s="10"/>
     </row>
     <row r="154" spans="3:7">
-      <c r="C154" s="68"/>
-      <c r="D154" s="75"/>
+      <c r="C154" s="74"/>
+      <c r="D154" s="77"/>
       <c r="E154" s="43"/>
-      <c r="F154" s="81"/>
+      <c r="F154" s="80"/>
       <c r="G154" s="10"/>
     </row>
     <row r="155" spans="3:7" ht="21" customHeight="1">
-      <c r="C155" s="68"/>
-      <c r="D155" s="74" t="s">
+      <c r="C155" s="74"/>
+      <c r="D155" s="76" t="s">
         <v>297</v>
       </c>
-      <c r="E155" s="77" t="s">
+      <c r="E155" s="72" t="s">
         <v>342</v>
       </c>
-      <c r="F155" s="80" t="s">
+      <c r="F155" s="79" t="s">
         <v>343</v>
       </c>
       <c r="G155" s="10"/>
     </row>
     <row r="156" spans="3:7" ht="21" customHeight="1">
-      <c r="C156" s="68"/>
-      <c r="D156" s="75"/>
-      <c r="E156" s="78"/>
-      <c r="F156" s="79"/>
+      <c r="C156" s="74"/>
+      <c r="D156" s="77"/>
+      <c r="E156" s="70"/>
+      <c r="F156" s="73"/>
       <c r="G156" s="10"/>
     </row>
     <row r="157" spans="3:7" ht="21" customHeight="1">
-      <c r="C157" s="68"/>
-      <c r="D157" s="75"/>
+      <c r="C157" s="74"/>
+      <c r="D157" s="77"/>
       <c r="E157" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="F157" s="79"/>
+      <c r="F157" s="73"/>
       <c r="G157" s="10"/>
     </row>
     <row r="158" spans="3:7" ht="21">
-      <c r="C158" s="68"/>
-      <c r="D158" s="75"/>
+      <c r="C158" s="74"/>
+      <c r="D158" s="77"/>
       <c r="E158" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F158" s="78"/>
+      <c r="F158" s="70"/>
       <c r="G158" s="10"/>
     </row>
     <row r="159" spans="3:7" ht="20" customHeight="1">
-      <c r="C159" s="68"/>
-      <c r="D159" s="75"/>
+      <c r="C159" s="74"/>
+      <c r="D159" s="77"/>
       <c r="E159" s="43"/>
-      <c r="F159" s="77" t="s">
+      <c r="F159" s="72" t="s">
         <v>140</v>
       </c>
       <c r="G159" s="10"/>
     </row>
     <row r="160" spans="3:7">
-      <c r="C160" s="68"/>
-      <c r="D160" s="75"/>
+      <c r="C160" s="74"/>
+      <c r="D160" s="77"/>
       <c r="E160" s="43"/>
-      <c r="F160" s="81"/>
+      <c r="F160" s="80"/>
       <c r="G160" s="10"/>
     </row>
     <row r="161" spans="3:7" ht="21" customHeight="1">
-      <c r="C161" s="68"/>
-      <c r="D161" s="74" t="s">
+      <c r="C161" s="74"/>
+      <c r="D161" s="76" t="s">
         <v>340</v>
       </c>
-      <c r="E161" s="77" t="s">
+      <c r="E161" s="72" t="s">
         <v>336</v>
       </c>
-      <c r="F161" s="80" t="s">
+      <c r="F161" s="79" t="s">
         <v>344</v>
       </c>
       <c r="G161" s="10"/>
     </row>
     <row r="162" spans="3:7" ht="21" customHeight="1">
-      <c r="C162" s="68"/>
-      <c r="D162" s="75"/>
-      <c r="E162" s="78"/>
-      <c r="F162" s="79"/>
+      <c r="C162" s="74"/>
+      <c r="D162" s="77"/>
+      <c r="E162" s="70"/>
+      <c r="F162" s="73"/>
       <c r="G162" s="10"/>
     </row>
     <row r="163" spans="3:7" ht="21" customHeight="1">
-      <c r="C163" s="68"/>
-      <c r="D163" s="75"/>
+      <c r="C163" s="74"/>
+      <c r="D163" s="77"/>
       <c r="E163" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="F163" s="79"/>
+      <c r="F163" s="73"/>
       <c r="G163" s="10"/>
     </row>
     <row r="164" spans="3:7" ht="21">
-      <c r="C164" s="68"/>
-      <c r="D164" s="75"/>
+      <c r="C164" s="74"/>
+      <c r="D164" s="77"/>
       <c r="E164" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F164" s="78"/>
+      <c r="F164" s="70"/>
       <c r="G164" s="10"/>
     </row>
     <row r="165" spans="3:7" ht="20" customHeight="1">
-      <c r="C165" s="68"/>
-      <c r="D165" s="75"/>
+      <c r="C165" s="74"/>
+      <c r="D165" s="77"/>
       <c r="E165" s="43"/>
-      <c r="F165" s="77" t="s">
+      <c r="F165" s="72" t="s">
         <v>155</v>
       </c>
       <c r="G165" s="10"/>
     </row>
     <row r="166" spans="3:7">
-      <c r="C166" s="68"/>
-      <c r="D166" s="75"/>
+      <c r="C166" s="74"/>
+      <c r="D166" s="77"/>
       <c r="E166" s="43"/>
-      <c r="F166" s="81"/>
+      <c r="F166" s="80"/>
       <c r="G166" s="10"/>
     </row>
     <row r="167" spans="3:7" ht="21" customHeight="1">
-      <c r="C167" s="68"/>
-      <c r="D167" s="74" t="s">
+      <c r="C167" s="74"/>
+      <c r="D167" s="76" t="s">
         <v>138</v>
       </c>
       <c r="E167" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F167" s="80" t="s">
+      <c r="F167" s="79" t="s">
         <v>153</v>
       </c>
       <c r="G167" s="10"/>
     </row>
     <row r="168" spans="3:7" ht="21" customHeight="1">
-      <c r="C168" s="68"/>
-      <c r="D168" s="75"/>
+      <c r="C168" s="74"/>
+      <c r="D168" s="77"/>
       <c r="E168" s="43" t="s">
         <v>349</v>
       </c>
-      <c r="F168" s="79"/>
+      <c r="F168" s="73"/>
       <c r="G168" s="10"/>
     </row>
     <row r="169" spans="3:7" ht="21">
-      <c r="C169" s="68"/>
-      <c r="D169" s="75"/>
+      <c r="C169" s="74"/>
+      <c r="D169" s="77"/>
       <c r="E169" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F169" s="78"/>
+      <c r="F169" s="70"/>
       <c r="G169" s="10"/>
     </row>
     <row r="170" spans="3:7" ht="20" customHeight="1">
-      <c r="C170" s="68"/>
-      <c r="D170" s="75"/>
+      <c r="C170" s="74"/>
+      <c r="D170" s="77"/>
       <c r="E170" s="18"/>
-      <c r="F170" s="77" t="s">
+      <c r="F170" s="72" t="s">
         <v>140</v>
       </c>
       <c r="G170" s="10"/>
     </row>
     <row r="171" spans="3:7">
-      <c r="C171" s="68"/>
-      <c r="D171" s="75"/>
+      <c r="C171" s="74"/>
+      <c r="D171" s="77"/>
       <c r="E171" s="22"/>
-      <c r="F171" s="81"/>
+      <c r="F171" s="80"/>
       <c r="G171" s="10"/>
     </row>
     <row r="172" spans="3:7" ht="21" customHeight="1">
-      <c r="C172" s="68"/>
-      <c r="D172" s="74" t="s">
+      <c r="C172" s="74"/>
+      <c r="D172" s="76" t="s">
         <v>337</v>
       </c>
-      <c r="E172" s="77" t="s">
+      <c r="E172" s="72" t="s">
         <v>339</v>
       </c>
-      <c r="F172" s="80" t="s">
+      <c r="F172" s="79" t="s">
         <v>338</v>
       </c>
       <c r="G172" s="10"/>
     </row>
     <row r="173" spans="3:7" ht="21" customHeight="1">
-      <c r="C173" s="68"/>
-      <c r="D173" s="75"/>
-      <c r="E173" s="78"/>
-      <c r="F173" s="79"/>
+      <c r="C173" s="74"/>
+      <c r="D173" s="77"/>
+      <c r="E173" s="70"/>
+      <c r="F173" s="73"/>
       <c r="G173" s="10"/>
     </row>
     <row r="174" spans="3:7" ht="21" customHeight="1">
-      <c r="C174" s="68"/>
-      <c r="D174" s="75"/>
+      <c r="C174" s="74"/>
+      <c r="D174" s="77"/>
       <c r="E174" s="43" t="s">
         <v>349</v>
       </c>
-      <c r="F174" s="79"/>
+      <c r="F174" s="73"/>
       <c r="G174" s="10"/>
     </row>
     <row r="175" spans="3:7" ht="21">
-      <c r="C175" s="68"/>
-      <c r="D175" s="75"/>
+      <c r="C175" s="74"/>
+      <c r="D175" s="77"/>
       <c r="E175" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F175" s="78"/>
+      <c r="F175" s="70"/>
       <c r="G175" s="10"/>
     </row>
     <row r="176" spans="3:7" ht="20" customHeight="1">
-      <c r="C176" s="68"/>
-      <c r="D176" s="75"/>
+      <c r="C176" s="74"/>
+      <c r="D176" s="77"/>
       <c r="E176" s="43"/>
-      <c r="F176" s="77" t="s">
+      <c r="F176" s="72" t="s">
         <v>155</v>
       </c>
       <c r="G176" s="10"/>
     </row>
     <row r="177" spans="3:7">
-      <c r="C177" s="68"/>
-      <c r="D177" s="75"/>
+      <c r="C177" s="74"/>
+      <c r="D177" s="77"/>
       <c r="E177" s="43"/>
-      <c r="F177" s="81"/>
+      <c r="F177" s="80"/>
       <c r="G177" s="10"/>
     </row>
     <row r="178" spans="3:7" ht="21" customHeight="1">
-      <c r="C178" s="68"/>
-      <c r="D178" s="74" t="s">
+      <c r="C178" s="74"/>
+      <c r="D178" s="76" t="s">
         <v>341</v>
       </c>
-      <c r="E178" s="77" t="s">
+      <c r="E178" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="F178" s="80" t="s">
+      <c r="F178" s="79" t="s">
         <v>346</v>
       </c>
       <c r="G178" s="10"/>
     </row>
     <row r="179" spans="3:7" ht="21" customHeight="1">
-      <c r="C179" s="68"/>
-      <c r="D179" s="75"/>
-      <c r="E179" s="78"/>
-      <c r="F179" s="79"/>
+      <c r="C179" s="74"/>
+      <c r="D179" s="77"/>
+      <c r="E179" s="70"/>
+      <c r="F179" s="73"/>
       <c r="G179" s="10"/>
     </row>
     <row r="180" spans="3:7" ht="21" customHeight="1">
-      <c r="C180" s="68"/>
-      <c r="D180" s="75"/>
+      <c r="C180" s="74"/>
+      <c r="D180" s="77"/>
       <c r="E180" s="43" t="s">
         <v>349</v>
       </c>
-      <c r="F180" s="79"/>
+      <c r="F180" s="73"/>
       <c r="G180" s="10"/>
     </row>
     <row r="181" spans="3:7" ht="21">
-      <c r="C181" s="68"/>
-      <c r="D181" s="75"/>
+      <c r="C181" s="74"/>
+      <c r="D181" s="77"/>
       <c r="E181" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F181" s="78"/>
+      <c r="F181" s="70"/>
       <c r="G181" s="10"/>
     </row>
     <row r="182" spans="3:7" ht="20" customHeight="1">
-      <c r="C182" s="68"/>
-      <c r="D182" s="75"/>
+      <c r="C182" s="74"/>
+      <c r="D182" s="77"/>
       <c r="E182" s="43"/>
-      <c r="F182" s="77" t="s">
+      <c r="F182" s="72" t="s">
         <v>140</v>
       </c>
       <c r="G182" s="10"/>
     </row>
     <row r="183" spans="3:7">
-      <c r="C183" s="68"/>
-      <c r="D183" s="75"/>
+      <c r="C183" s="74"/>
+      <c r="D183" s="77"/>
       <c r="E183" s="43"/>
-      <c r="F183" s="81"/>
+      <c r="F183" s="80"/>
       <c r="G183" s="10"/>
     </row>
     <row r="184" spans="3:7" ht="21" customHeight="1">
-      <c r="C184" s="68"/>
-      <c r="D184" s="74" t="s">
+      <c r="C184" s="74"/>
+      <c r="D184" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="E184" s="77" t="s">
+      <c r="E184" s="72" t="s">
         <v>356</v>
       </c>
-      <c r="F184" s="80" t="s">
+      <c r="F184" s="79" t="s">
         <v>345</v>
       </c>
       <c r="G184" s="10"/>
     </row>
     <row r="185" spans="3:7" ht="21" customHeight="1">
-      <c r="C185" s="68"/>
-      <c r="D185" s="75"/>
-      <c r="E185" s="78"/>
-      <c r="F185" s="79"/>
+      <c r="C185" s="74"/>
+      <c r="D185" s="77"/>
+      <c r="E185" s="70"/>
+      <c r="F185" s="73"/>
       <c r="G185" s="10"/>
     </row>
     <row r="186" spans="3:7" ht="21" customHeight="1">
-      <c r="C186" s="68"/>
-      <c r="D186" s="75"/>
+      <c r="C186" s="74"/>
+      <c r="D186" s="77"/>
       <c r="E186" s="43" t="s">
         <v>349</v>
       </c>
-      <c r="F186" s="79"/>
+      <c r="F186" s="73"/>
       <c r="G186" s="10"/>
     </row>
     <row r="187" spans="3:7" ht="21">
-      <c r="C187" s="68"/>
-      <c r="D187" s="75"/>
+      <c r="C187" s="74"/>
+      <c r="D187" s="77"/>
       <c r="E187" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F187" s="78"/>
+      <c r="F187" s="70"/>
       <c r="G187" s="10"/>
     </row>
     <row r="188" spans="3:7" ht="20" customHeight="1">
-      <c r="C188" s="68"/>
-      <c r="D188" s="75"/>
+      <c r="C188" s="74"/>
+      <c r="D188" s="77"/>
       <c r="E188" s="43"/>
-      <c r="F188" s="77" t="s">
+      <c r="F188" s="72" t="s">
         <v>155</v>
       </c>
       <c r="G188" s="10"/>
     </row>
     <row r="189" spans="3:7">
-      <c r="C189" s="68"/>
-      <c r="D189" s="75"/>
+      <c r="C189" s="74"/>
+      <c r="D189" s="77"/>
       <c r="E189" s="43"/>
-      <c r="F189" s="81"/>
+      <c r="F189" s="80"/>
       <c r="G189" s="10"/>
     </row>
     <row r="190" spans="3:7" ht="21" customHeight="1">
-      <c r="C190" s="68"/>
-      <c r="D190" s="74" t="s">
+      <c r="C190" s="74"/>
+      <c r="D190" s="76" t="s">
         <v>139</v>
       </c>
       <c r="E190" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="F190" s="80" t="s">
+      <c r="F190" s="79" t="s">
         <v>152</v>
       </c>
       <c r="G190" s="10"/>
     </row>
     <row r="191" spans="3:7" ht="21">
-      <c r="C191" s="68"/>
-      <c r="D191" s="75"/>
+      <c r="C191" s="74"/>
+      <c r="D191" s="77"/>
       <c r="E191" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="F191" s="78"/>
+      <c r="F191" s="70"/>
       <c r="G191" s="10"/>
     </row>
     <row r="192" spans="3:7" ht="20" customHeight="1">
-      <c r="C192" s="68"/>
-      <c r="D192" s="75"/>
+      <c r="C192" s="74"/>
+      <c r="D192" s="77"/>
       <c r="E192" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F192" s="77" t="s">
+      <c r="F192" s="72" t="s">
         <v>155</v>
       </c>
       <c r="G192" s="10"/>
     </row>
     <row r="193" spans="3:7">
-      <c r="C193" s="68"/>
-      <c r="D193" s="75"/>
+      <c r="C193" s="74"/>
+      <c r="D193" s="77"/>
       <c r="E193" s="22"/>
-      <c r="F193" s="79"/>
+      <c r="F193" s="73"/>
       <c r="G193" s="10"/>
     </row>
     <row r="194" spans="3:7" ht="21" customHeight="1">
-      <c r="C194" s="68"/>
-      <c r="D194" s="74" t="s">
+      <c r="C194" s="74"/>
+      <c r="D194" s="76" t="s">
         <v>352</v>
       </c>
-      <c r="E194" s="77" t="s">
+      <c r="E194" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="F194" s="80" t="s">
+      <c r="F194" s="79" t="s">
         <v>354</v>
       </c>
       <c r="G194" s="10"/>
     </row>
     <row r="195" spans="3:7" ht="21" customHeight="1">
-      <c r="C195" s="68"/>
-      <c r="D195" s="75"/>
-      <c r="E195" s="78"/>
-      <c r="F195" s="79"/>
+      <c r="C195" s="74"/>
+      <c r="D195" s="77"/>
+      <c r="E195" s="70"/>
+      <c r="F195" s="73"/>
       <c r="G195" s="10"/>
     </row>
     <row r="196" spans="3:7" ht="21" customHeight="1">
-      <c r="C196" s="68"/>
-      <c r="D196" s="75"/>
+      <c r="C196" s="74"/>
+      <c r="D196" s="77"/>
       <c r="E196" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="F196" s="79"/>
+      <c r="F196" s="73"/>
       <c r="G196" s="10"/>
     </row>
     <row r="197" spans="3:7" ht="21">
-      <c r="C197" s="68"/>
-      <c r="D197" s="75"/>
+      <c r="C197" s="74"/>
+      <c r="D197" s="77"/>
       <c r="E197" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F197" s="78"/>
+      <c r="F197" s="70"/>
       <c r="G197" s="10"/>
     </row>
     <row r="198" spans="3:7" ht="20" customHeight="1">
-      <c r="C198" s="68"/>
-      <c r="D198" s="75"/>
+      <c r="C198" s="74"/>
+      <c r="D198" s="77"/>
       <c r="E198" s="43"/>
-      <c r="F198" s="77" t="s">
+      <c r="F198" s="72" t="s">
         <v>155</v>
       </c>
       <c r="G198" s="10"/>
     </row>
     <row r="199" spans="3:7">
-      <c r="C199" s="68"/>
-      <c r="D199" s="75"/>
+      <c r="C199" s="74"/>
+      <c r="D199" s="77"/>
       <c r="E199" s="43"/>
-      <c r="F199" s="81"/>
+      <c r="F199" s="80"/>
       <c r="G199" s="10"/>
     </row>
     <row r="200" spans="3:7" ht="21" customHeight="1">
-      <c r="C200" s="68"/>
-      <c r="D200" s="74" t="s">
+      <c r="C200" s="74"/>
+      <c r="D200" s="76" t="s">
         <v>355</v>
       </c>
-      <c r="E200" s="77" t="s">
+      <c r="E200" s="72" t="s">
         <v>358</v>
       </c>
-      <c r="F200" s="80" t="s">
+      <c r="F200" s="79" t="s">
         <v>346</v>
       </c>
       <c r="G200" s="10"/>
     </row>
     <row r="201" spans="3:7" ht="21" customHeight="1">
-      <c r="C201" s="68"/>
-      <c r="D201" s="75"/>
-      <c r="E201" s="78"/>
-      <c r="F201" s="79"/>
+      <c r="C201" s="74"/>
+      <c r="D201" s="77"/>
+      <c r="E201" s="70"/>
+      <c r="F201" s="73"/>
       <c r="G201" s="10"/>
     </row>
     <row r="202" spans="3:7" ht="21" customHeight="1">
-      <c r="C202" s="68"/>
-      <c r="D202" s="75"/>
+      <c r="C202" s="74"/>
+      <c r="D202" s="77"/>
       <c r="E202" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="F202" s="79"/>
+      <c r="F202" s="73"/>
       <c r="G202" s="10"/>
     </row>
     <row r="203" spans="3:7" ht="21">
-      <c r="C203" s="68"/>
-      <c r="D203" s="75"/>
+      <c r="C203" s="74"/>
+      <c r="D203" s="77"/>
       <c r="E203" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F203" s="78"/>
+      <c r="F203" s="70"/>
       <c r="G203" s="10"/>
     </row>
     <row r="204" spans="3:7" ht="20" customHeight="1">
-      <c r="C204" s="68"/>
-      <c r="D204" s="75"/>
+      <c r="C204" s="74"/>
+      <c r="D204" s="77"/>
       <c r="E204" s="43"/>
-      <c r="F204" s="77" t="s">
+      <c r="F204" s="72" t="s">
         <v>140</v>
       </c>
       <c r="G204" s="10"/>
     </row>
     <row r="205" spans="3:7">
-      <c r="C205" s="68"/>
-      <c r="D205" s="75"/>
+      <c r="C205" s="74"/>
+      <c r="D205" s="77"/>
       <c r="E205" s="43"/>
-      <c r="F205" s="81"/>
+      <c r="F205" s="80"/>
       <c r="G205" s="10"/>
     </row>
     <row r="206" spans="3:7" ht="21" customHeight="1">
-      <c r="C206" s="68"/>
-      <c r="D206" s="74" t="s">
+      <c r="C206" s="74"/>
+      <c r="D206" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="E206" s="77" t="s">
+      <c r="E206" s="72" t="s">
         <v>356</v>
       </c>
-      <c r="F206" s="80" t="s">
+      <c r="F206" s="79" t="s">
         <v>345</v>
       </c>
       <c r="G206" s="10"/>
     </row>
     <row r="207" spans="3:7" ht="21" customHeight="1">
-      <c r="C207" s="68"/>
-      <c r="D207" s="75"/>
-      <c r="E207" s="78"/>
-      <c r="F207" s="79"/>
+      <c r="C207" s="74"/>
+      <c r="D207" s="77"/>
+      <c r="E207" s="70"/>
+      <c r="F207" s="73"/>
       <c r="G207" s="10"/>
     </row>
     <row r="208" spans="3:7" ht="21" customHeight="1">
-      <c r="C208" s="68"/>
-      <c r="D208" s="75"/>
+      <c r="C208" s="74"/>
+      <c r="D208" s="77"/>
       <c r="E208" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="F208" s="79"/>
+      <c r="F208" s="73"/>
       <c r="G208" s="10"/>
     </row>
     <row r="209" spans="3:7" ht="21">
-      <c r="C209" s="68"/>
-      <c r="D209" s="75"/>
+      <c r="C209" s="74"/>
+      <c r="D209" s="77"/>
       <c r="E209" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F209" s="78"/>
+      <c r="F209" s="70"/>
       <c r="G209" s="10"/>
     </row>
     <row r="210" spans="3:7" ht="20" customHeight="1">
-      <c r="C210" s="68"/>
-      <c r="D210" s="75"/>
+      <c r="C210" s="74"/>
+      <c r="D210" s="77"/>
       <c r="E210" s="43"/>
-      <c r="F210" s="77" t="s">
+      <c r="F210" s="72" t="s">
         <v>155</v>
       </c>
       <c r="G210" s="10"/>
     </row>
     <row r="211" spans="3:7">
-      <c r="C211" s="73"/>
-      <c r="D211" s="75"/>
+      <c r="C211" s="85"/>
+      <c r="D211" s="77"/>
       <c r="E211" s="43"/>
-      <c r="F211" s="81"/>
+      <c r="F211" s="80"/>
       <c r="G211" s="10"/>
     </row>
     <row r="212" spans="3:7" ht="21">
-      <c r="C212" s="72" t="s">
+      <c r="C212" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="D212" s="87" t="s">
+      <c r="D212" s="86" t="s">
         <v>142</v>
       </c>
       <c r="E212" s="23" t="s">
@@ -8993,8 +8993,8 @@
       <c r="G212" s="10"/>
     </row>
     <row r="213" spans="3:7" ht="21">
-      <c r="C213" s="68"/>
-      <c r="D213" s="75"/>
+      <c r="C213" s="74"/>
+      <c r="D213" s="77"/>
       <c r="E213" s="24" t="s">
         <v>146</v>
       </c>
@@ -9004,46 +9004,46 @@
       <c r="G213" s="10"/>
     </row>
     <row r="214" spans="3:7" ht="21" customHeight="1">
-      <c r="C214" s="68"/>
-      <c r="D214" s="75"/>
+      <c r="C214" s="74"/>
+      <c r="D214" s="77"/>
       <c r="E214" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F214" s="77" t="s">
+      <c r="F214" s="72" t="s">
         <v>196</v>
       </c>
       <c r="G214" s="10"/>
     </row>
     <row r="215" spans="3:7">
-      <c r="C215" s="68"/>
-      <c r="D215" s="76"/>
+      <c r="C215" s="74"/>
+      <c r="D215" s="78"/>
       <c r="E215" s="24"/>
-      <c r="F215" s="78"/>
+      <c r="F215" s="70"/>
       <c r="G215" s="10"/>
     </row>
     <row r="216" spans="3:7" ht="21">
-      <c r="C216" s="68"/>
-      <c r="D216" s="74" t="s">
+      <c r="C216" s="74"/>
+      <c r="D216" s="76" t="s">
         <v>427</v>
       </c>
       <c r="E216" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="F216" s="97"/>
+      <c r="F216" s="69"/>
       <c r="G216" s="10"/>
     </row>
     <row r="217" spans="3:7" ht="21">
-      <c r="C217" s="68"/>
-      <c r="D217" s="75"/>
+      <c r="C217" s="74"/>
+      <c r="D217" s="77"/>
       <c r="E217" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="F217" s="78"/>
+      <c r="F217" s="70"/>
       <c r="G217" s="10"/>
     </row>
     <row r="218" spans="3:7" ht="21">
-      <c r="C218" s="68"/>
-      <c r="D218" s="75"/>
+      <c r="C218" s="74"/>
+      <c r="D218" s="77"/>
       <c r="E218" s="52" t="s">
         <v>399</v>
       </c>
@@ -9051,40 +9051,40 @@
       <c r="G218" s="10"/>
     </row>
     <row r="219" spans="3:7" ht="19" customHeight="1">
-      <c r="C219" s="68"/>
-      <c r="D219" s="75"/>
-      <c r="E219" s="77" t="s">
+      <c r="C219" s="74"/>
+      <c r="D219" s="77"/>
+      <c r="E219" s="72" t="s">
         <v>423</v>
       </c>
       <c r="F219" s="71"/>
       <c r="G219" s="10"/>
     </row>
     <row r="220" spans="3:7">
-      <c r="C220" s="68"/>
-      <c r="D220" s="75"/>
-      <c r="E220" s="78"/>
+      <c r="C220" s="74"/>
+      <c r="D220" s="77"/>
+      <c r="E220" s="70"/>
       <c r="F220" s="71"/>
       <c r="G220" s="10"/>
     </row>
     <row r="221" spans="3:7" ht="22" customHeight="1">
-      <c r="C221" s="68"/>
-      <c r="D221" s="75"/>
-      <c r="E221" s="77" t="s">
+      <c r="C221" s="74"/>
+      <c r="D221" s="77"/>
+      <c r="E221" s="72" t="s">
         <v>429</v>
       </c>
       <c r="F221" s="56"/>
       <c r="G221" s="10"/>
     </row>
     <row r="222" spans="3:7">
-      <c r="C222" s="68"/>
-      <c r="D222" s="75"/>
-      <c r="E222" s="78"/>
+      <c r="C222" s="74"/>
+      <c r="D222" s="77"/>
+      <c r="E222" s="70"/>
       <c r="F222" s="56"/>
       <c r="G222" s="10"/>
     </row>
     <row r="223" spans="3:7" ht="21">
-      <c r="C223" s="68"/>
-      <c r="D223" s="75"/>
+      <c r="C223" s="74"/>
+      <c r="D223" s="77"/>
       <c r="E223" s="52" t="s">
         <v>350</v>
       </c>
@@ -9092,8 +9092,8 @@
       <c r="G223" s="10"/>
     </row>
     <row r="224" spans="3:7" ht="21">
-      <c r="C224" s="68"/>
-      <c r="D224" s="75"/>
+      <c r="C224" s="74"/>
+      <c r="D224" s="77"/>
       <c r="E224" s="51" t="s">
         <v>402</v>
       </c>
@@ -9101,8 +9101,8 @@
       <c r="G224" s="10"/>
     </row>
     <row r="225" spans="3:7" ht="21">
-      <c r="C225" s="68"/>
-      <c r="D225" s="75"/>
+      <c r="C225" s="74"/>
+      <c r="D225" s="77"/>
       <c r="E225" s="51" t="s">
         <v>430</v>
       </c>
@@ -9110,24 +9110,24 @@
       <c r="G225" s="10"/>
     </row>
     <row r="226" spans="3:7" ht="21" customHeight="1">
-      <c r="C226" s="68"/>
-      <c r="D226" s="75"/>
-      <c r="E226" s="79" t="s">
+      <c r="C226" s="74"/>
+      <c r="D226" s="77"/>
+      <c r="E226" s="73" t="s">
         <v>431</v>
       </c>
       <c r="F226" s="53"/>
       <c r="G226" s="10"/>
     </row>
     <row r="227" spans="3:7">
-      <c r="C227" s="68"/>
-      <c r="D227" s="75"/>
-      <c r="E227" s="78"/>
+      <c r="C227" s="74"/>
+      <c r="D227" s="77"/>
+      <c r="E227" s="70"/>
       <c r="F227" s="53"/>
       <c r="G227" s="10"/>
     </row>
     <row r="228" spans="3:7" ht="21">
-      <c r="C228" s="68"/>
-      <c r="D228" s="75"/>
+      <c r="C228" s="74"/>
+      <c r="D228" s="77"/>
       <c r="E228" s="52" t="s">
         <v>350</v>
       </c>
@@ -9137,37 +9137,37 @@
       <c r="G228" s="10"/>
     </row>
     <row r="229" spans="3:7" ht="21">
-      <c r="C229" s="68"/>
-      <c r="D229" s="76"/>
+      <c r="C229" s="74"/>
+      <c r="D229" s="78"/>
       <c r="E229" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="F229" s="77"/>
+      <c r="F229" s="72"/>
       <c r="G229" s="10"/>
     </row>
     <row r="230" spans="3:7" ht="21">
-      <c r="C230" s="68"/>
-      <c r="D230" s="74" t="s">
+      <c r="C230" s="74"/>
+      <c r="D230" s="76" t="s">
         <v>434</v>
       </c>
       <c r="E230" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="F230" s="97"/>
+      <c r="F230" s="69"/>
       <c r="G230" s="10"/>
     </row>
     <row r="231" spans="3:7" ht="21">
-      <c r="C231" s="68"/>
-      <c r="D231" s="75"/>
+      <c r="C231" s="74"/>
+      <c r="D231" s="77"/>
       <c r="E231" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="F231" s="78"/>
+      <c r="F231" s="70"/>
       <c r="G231" s="10"/>
     </row>
     <row r="232" spans="3:7" ht="21">
-      <c r="C232" s="68"/>
-      <c r="D232" s="75"/>
+      <c r="C232" s="74"/>
+      <c r="D232" s="77"/>
       <c r="E232" s="52" t="s">
         <v>399</v>
       </c>
@@ -9175,40 +9175,40 @@
       <c r="G232" s="10"/>
     </row>
     <row r="233" spans="3:7" ht="19" customHeight="1">
-      <c r="C233" s="68"/>
-      <c r="D233" s="75"/>
-      <c r="E233" s="77" t="s">
+      <c r="C233" s="74"/>
+      <c r="D233" s="77"/>
+      <c r="E233" s="72" t="s">
         <v>423</v>
       </c>
       <c r="F233" s="71"/>
       <c r="G233" s="10"/>
     </row>
     <row r="234" spans="3:7">
-      <c r="C234" s="68"/>
-      <c r="D234" s="75"/>
-      <c r="E234" s="78"/>
+      <c r="C234" s="74"/>
+      <c r="D234" s="77"/>
+      <c r="E234" s="70"/>
       <c r="F234" s="71"/>
       <c r="G234" s="10"/>
     </row>
     <row r="235" spans="3:7" ht="22" customHeight="1">
-      <c r="C235" s="68"/>
-      <c r="D235" s="75"/>
-      <c r="E235" s="77" t="s">
+      <c r="C235" s="74"/>
+      <c r="D235" s="77"/>
+      <c r="E235" s="72" t="s">
         <v>429</v>
       </c>
       <c r="F235" s="56"/>
       <c r="G235" s="10"/>
     </row>
     <row r="236" spans="3:7">
-      <c r="C236" s="68"/>
-      <c r="D236" s="75"/>
-      <c r="E236" s="78"/>
+      <c r="C236" s="74"/>
+      <c r="D236" s="77"/>
+      <c r="E236" s="70"/>
       <c r="F236" s="56"/>
       <c r="G236" s="10"/>
     </row>
     <row r="237" spans="3:7" ht="21">
-      <c r="C237" s="68"/>
-      <c r="D237" s="75"/>
+      <c r="C237" s="74"/>
+      <c r="D237" s="77"/>
       <c r="E237" s="52" t="s">
         <v>350</v>
       </c>
@@ -9216,8 +9216,8 @@
       <c r="G237" s="10"/>
     </row>
     <row r="238" spans="3:7" ht="21">
-      <c r="C238" s="68"/>
-      <c r="D238" s="75"/>
+      <c r="C238" s="74"/>
+      <c r="D238" s="77"/>
       <c r="E238" s="51" t="s">
         <v>402</v>
       </c>
@@ -9225,8 +9225,8 @@
       <c r="G238" s="10"/>
     </row>
     <row r="239" spans="3:7" ht="21">
-      <c r="C239" s="68"/>
-      <c r="D239" s="75"/>
+      <c r="C239" s="74"/>
+      <c r="D239" s="77"/>
       <c r="E239" s="51" t="s">
         <v>430</v>
       </c>
@@ -9234,24 +9234,24 @@
       <c r="G239" s="10"/>
     </row>
     <row r="240" spans="3:7" ht="21" customHeight="1">
-      <c r="C240" s="68"/>
-      <c r="D240" s="75"/>
-      <c r="E240" s="79" t="s">
+      <c r="C240" s="74"/>
+      <c r="D240" s="77"/>
+      <c r="E240" s="73" t="s">
         <v>436</v>
       </c>
       <c r="F240" s="53"/>
       <c r="G240" s="10"/>
     </row>
     <row r="241" spans="3:7">
-      <c r="C241" s="68"/>
-      <c r="D241" s="75"/>
-      <c r="E241" s="78"/>
+      <c r="C241" s="74"/>
+      <c r="D241" s="77"/>
+      <c r="E241" s="70"/>
       <c r="F241" s="53"/>
       <c r="G241" s="10"/>
     </row>
     <row r="242" spans="3:7" ht="21">
-      <c r="C242" s="68"/>
-      <c r="D242" s="75"/>
+      <c r="C242" s="74"/>
+      <c r="D242" s="77"/>
       <c r="E242" s="52" t="s">
         <v>350</v>
       </c>
@@ -9261,30 +9261,30 @@
       <c r="G242" s="10"/>
     </row>
     <row r="243" spans="3:7" ht="21">
-      <c r="C243" s="68"/>
-      <c r="D243" s="76"/>
+      <c r="C243" s="74"/>
+      <c r="D243" s="78"/>
       <c r="E243" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="F243" s="77"/>
+      <c r="F243" s="72"/>
       <c r="G243" s="10"/>
     </row>
     <row r="244" spans="3:7" ht="18" customHeight="1">
-      <c r="C244" s="68"/>
-      <c r="D244" s="74" t="s">
+      <c r="C244" s="74"/>
+      <c r="D244" s="76" t="s">
         <v>143</v>
       </c>
       <c r="E244" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F244" s="98" t="s">
+      <c r="F244" s="58" t="s">
         <v>135</v>
       </c>
       <c r="G244" s="10"/>
     </row>
     <row r="245" spans="3:7" ht="21">
-      <c r="C245" s="68"/>
-      <c r="D245" s="75"/>
+      <c r="C245" s="74"/>
+      <c r="D245" s="77"/>
       <c r="E245" s="56" t="s">
         <v>148</v>
       </c>
@@ -9294,25 +9294,25 @@
       <c r="G245" s="10"/>
     </row>
     <row r="246" spans="3:7" ht="21">
-      <c r="C246" s="68"/>
-      <c r="D246" s="75"/>
+      <c r="C246" s="74"/>
+      <c r="D246" s="77"/>
       <c r="E246" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="F246" s="77" t="s">
+      <c r="F246" s="72" t="s">
         <v>195</v>
       </c>
       <c r="G246" s="10"/>
     </row>
     <row r="247" spans="3:7">
-      <c r="C247" s="68"/>
-      <c r="D247" s="76"/>
+      <c r="C247" s="74"/>
+      <c r="D247" s="78"/>
       <c r="E247" s="56"/>
-      <c r="F247" s="78"/>
+      <c r="F247" s="70"/>
       <c r="G247" s="10"/>
     </row>
     <row r="248" spans="3:7" ht="21">
-      <c r="C248" s="73"/>
+      <c r="C248" s="85"/>
       <c r="D248" s="45" t="s">
         <v>359</v>
       </c>
@@ -9325,85 +9325,85 @@
       <c r="G248" s="13"/>
     </row>
     <row r="249" spans="3:7" ht="20" customHeight="1">
-      <c r="C249" s="72" t="s">
+      <c r="C249" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D249" s="75" t="s">
+      <c r="D249" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E249" s="79" t="s">
+      <c r="E249" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F249" s="79" t="s">
+      <c r="F249" s="73" t="s">
         <v>159</v>
       </c>
       <c r="G249" s="9"/>
     </row>
     <row r="250" spans="3:7">
-      <c r="C250" s="68"/>
-      <c r="D250" s="75"/>
-      <c r="E250" s="78"/>
-      <c r="F250" s="78"/>
+      <c r="C250" s="74"/>
+      <c r="D250" s="77"/>
+      <c r="E250" s="70"/>
+      <c r="F250" s="70"/>
       <c r="G250" s="10"/>
     </row>
     <row r="251" spans="3:7" ht="21">
-      <c r="C251" s="68"/>
-      <c r="D251" s="75"/>
+      <c r="C251" s="74"/>
+      <c r="D251" s="77"/>
       <c r="E251" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="F251" s="77" t="s">
+      <c r="F251" s="72" t="s">
         <v>160</v>
       </c>
       <c r="G251" s="10"/>
     </row>
     <row r="252" spans="3:7">
-      <c r="C252" s="68"/>
-      <c r="D252" s="76"/>
+      <c r="C252" s="74"/>
+      <c r="D252" s="78"/>
       <c r="E252" s="20"/>
-      <c r="F252" s="81"/>
+      <c r="F252" s="80"/>
       <c r="G252" s="10"/>
     </row>
     <row r="253" spans="3:7" ht="20" customHeight="1">
-      <c r="C253" s="68"/>
-      <c r="D253" s="74" t="s">
+      <c r="C253" s="74"/>
+      <c r="D253" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="E253" s="77" t="s">
+      <c r="E253" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="F253" s="80" t="s">
+      <c r="F253" s="79" t="s">
         <v>161</v>
       </c>
       <c r="G253" s="10"/>
     </row>
     <row r="254" spans="3:7">
-      <c r="C254" s="68"/>
-      <c r="D254" s="75"/>
-      <c r="E254" s="78"/>
-      <c r="F254" s="78"/>
+      <c r="C254" s="74"/>
+      <c r="D254" s="77"/>
+      <c r="E254" s="70"/>
+      <c r="F254" s="70"/>
       <c r="G254" s="10"/>
     </row>
     <row r="255" spans="3:7" ht="21">
-      <c r="C255" s="68"/>
-      <c r="D255" s="75"/>
+      <c r="C255" s="74"/>
+      <c r="D255" s="77"/>
       <c r="E255" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="F255" s="77" t="s">
+      <c r="F255" s="72" t="s">
         <v>162</v>
       </c>
       <c r="G255" s="10"/>
     </row>
     <row r="256" spans="3:7">
-      <c r="C256" s="73"/>
-      <c r="D256" s="75"/>
+      <c r="C256" s="85"/>
+      <c r="D256" s="77"/>
       <c r="E256" s="20"/>
-      <c r="F256" s="79"/>
+      <c r="F256" s="73"/>
       <c r="G256" s="30"/>
     </row>
     <row r="257" spans="3:7" ht="21">
-      <c r="C257" s="72" t="s">
+      <c r="C257" s="84" t="s">
         <v>26</v>
       </c>
       <c r="D257" s="14" t="s">
@@ -9416,7 +9416,7 @@
       <c r="G257" s="9"/>
     </row>
     <row r="258" spans="3:7" ht="21">
-      <c r="C258" s="73"/>
+      <c r="C258" s="85"/>
       <c r="D258" s="15"/>
       <c r="E258" s="26" t="s">
         <v>163</v>
@@ -9427,10 +9427,10 @@
       <c r="G258" s="30"/>
     </row>
     <row r="259" spans="3:7" ht="21">
-      <c r="C259" s="72" t="s">
+      <c r="C259" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D259" s="75" t="s">
+      <c r="D259" s="77" t="s">
         <v>54</v>
       </c>
       <c r="E259" s="18" t="s">
@@ -9440,8 +9440,8 @@
       <c r="G259" s="9"/>
     </row>
     <row r="260" spans="3:7" ht="21">
-      <c r="C260" s="68"/>
-      <c r="D260" s="76"/>
+      <c r="C260" s="74"/>
+      <c r="D260" s="78"/>
       <c r="E260" s="24" t="s">
         <v>166</v>
       </c>
@@ -9451,7 +9451,7 @@
       <c r="G260" s="10"/>
     </row>
     <row r="261" spans="3:7" ht="21">
-      <c r="C261" s="68"/>
+      <c r="C261" s="74"/>
       <c r="D261" s="17" t="s">
         <v>55</v>
       </c>
@@ -9464,8 +9464,8 @@
       <c r="G261" s="10"/>
     </row>
     <row r="262" spans="3:7" ht="21">
-      <c r="C262" s="68"/>
-      <c r="D262" s="74" t="s">
+      <c r="C262" s="74"/>
+      <c r="D262" s="76" t="s">
         <v>66</v>
       </c>
       <c r="E262" s="24" t="s">
@@ -9475,8 +9475,8 @@
       <c r="G262" s="10"/>
     </row>
     <row r="263" spans="3:7" ht="21">
-      <c r="C263" s="73"/>
-      <c r="D263" s="75"/>
+      <c r="C263" s="85"/>
+      <c r="D263" s="77"/>
       <c r="E263" s="20" t="s">
         <v>171</v>
       </c>
@@ -9486,10 +9486,10 @@
       <c r="G263" s="10"/>
     </row>
     <row r="264" spans="3:7" ht="21">
-      <c r="C264" s="72" t="s">
+      <c r="C264" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D264" s="87" t="s">
+      <c r="D264" s="86" t="s">
         <v>56</v>
       </c>
       <c r="E264" s="23" t="s">
@@ -9499,8 +9499,8 @@
       <c r="G264" s="10"/>
     </row>
     <row r="265" spans="3:7" ht="21">
-      <c r="C265" s="68"/>
-      <c r="D265" s="75"/>
+      <c r="C265" s="74"/>
+      <c r="D265" s="77"/>
       <c r="E265" s="24" t="s">
         <v>174</v>
       </c>
@@ -9508,29 +9508,29 @@
       <c r="G265" s="10"/>
     </row>
     <row r="266" spans="3:7" ht="22" customHeight="1">
-      <c r="C266" s="68"/>
-      <c r="D266" s="75"/>
+      <c r="C266" s="74"/>
+      <c r="D266" s="77"/>
       <c r="E266" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="F266" s="77" t="s">
+      <c r="F266" s="72" t="s">
         <v>194</v>
       </c>
       <c r="G266" s="10"/>
     </row>
     <row r="267" spans="3:7" ht="21">
-      <c r="C267" s="68"/>
-      <c r="D267" s="75"/>
+      <c r="C267" s="74"/>
+      <c r="D267" s="77"/>
       <c r="E267" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="F267" s="78"/>
+      <c r="F267" s="70"/>
       <c r="G267" s="10"/>
     </row>
     <row r="268" spans="3:7" ht="21" customHeight="1">
-      <c r="C268" s="68"/>
-      <c r="D268" s="75"/>
-      <c r="E268" s="77" t="s">
+      <c r="C268" s="74"/>
+      <c r="D268" s="77"/>
+      <c r="E268" s="72" t="s">
         <v>177</v>
       </c>
       <c r="F268" s="24" t="s">
@@ -9539,43 +9539,43 @@
       <c r="G268" s="10"/>
     </row>
     <row r="269" spans="3:7" ht="21" customHeight="1">
-      <c r="C269" s="68"/>
-      <c r="D269" s="75"/>
-      <c r="E269" s="78"/>
-      <c r="F269" s="77" t="s">
+      <c r="C269" s="74"/>
+      <c r="D269" s="77"/>
+      <c r="E269" s="70"/>
+      <c r="F269" s="72" t="s">
         <v>193</v>
       </c>
       <c r="G269" s="10"/>
     </row>
     <row r="270" spans="3:7">
-      <c r="C270" s="68"/>
-      <c r="D270" s="76"/>
+      <c r="C270" s="74"/>
+      <c r="D270" s="78"/>
       <c r="E270" s="18"/>
-      <c r="F270" s="78"/>
+      <c r="F270" s="70"/>
       <c r="G270" s="10"/>
     </row>
     <row r="271" spans="3:7" ht="21">
-      <c r="C271" s="68"/>
-      <c r="D271" s="74" t="s">
+      <c r="C271" s="74"/>
+      <c r="D271" s="76" t="s">
         <v>69</v>
       </c>
       <c r="E271" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="F271" s="77" t="s">
+      <c r="F271" s="72" t="s">
         <v>179</v>
       </c>
       <c r="G271" s="10"/>
     </row>
     <row r="272" spans="3:7">
-      <c r="C272" s="73"/>
-      <c r="D272" s="88"/>
+      <c r="C272" s="85"/>
+      <c r="D272" s="87"/>
       <c r="E272" s="26"/>
-      <c r="F272" s="81"/>
+      <c r="F272" s="80"/>
       <c r="G272" s="10"/>
     </row>
     <row r="273" spans="3:7" ht="21">
-      <c r="C273" s="72" t="s">
+      <c r="C273" s="84" t="s">
         <v>70</v>
       </c>
       <c r="D273" s="46" t="s">
@@ -9588,64 +9588,64 @@
       <c r="G273" s="10"/>
     </row>
     <row r="274" spans="3:7" ht="21">
-      <c r="C274" s="68"/>
-      <c r="D274" s="74" t="s">
+      <c r="C274" s="74"/>
+      <c r="D274" s="76" t="s">
         <v>397</v>
       </c>
       <c r="E274" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="F274" s="80" t="s">
+      <c r="F274" s="79" t="s">
         <v>403</v>
       </c>
       <c r="G274" s="10"/>
     </row>
     <row r="275" spans="3:7" ht="21">
-      <c r="C275" s="68"/>
-      <c r="D275" s="75"/>
+      <c r="C275" s="74"/>
+      <c r="D275" s="77"/>
       <c r="E275" s="52" t="s">
         <v>399</v>
       </c>
-      <c r="F275" s="79"/>
+      <c r="F275" s="73"/>
       <c r="G275" s="10"/>
     </row>
     <row r="276" spans="3:7" ht="19" customHeight="1">
-      <c r="C276" s="68"/>
-      <c r="D276" s="75"/>
-      <c r="E276" s="77" t="s">
+      <c r="C276" s="74"/>
+      <c r="D276" s="77"/>
+      <c r="E276" s="72" t="s">
         <v>400</v>
       </c>
-      <c r="F276" s="77" t="s">
+      <c r="F276" s="72" t="s">
         <v>405</v>
       </c>
       <c r="G276" s="10"/>
     </row>
     <row r="277" spans="3:7">
-      <c r="C277" s="68"/>
-      <c r="D277" s="75"/>
-      <c r="E277" s="78"/>
-      <c r="F277" s="81"/>
+      <c r="C277" s="74"/>
+      <c r="D277" s="77"/>
+      <c r="E277" s="70"/>
+      <c r="F277" s="80"/>
       <c r="G277" s="10"/>
     </row>
     <row r="278" spans="3:7" ht="22" customHeight="1">
-      <c r="C278" s="68"/>
-      <c r="D278" s="75"/>
-      <c r="E278" s="77" t="s">
+      <c r="C278" s="74"/>
+      <c r="D278" s="77"/>
+      <c r="E278" s="72" t="s">
         <v>401</v>
       </c>
       <c r="F278" s="51"/>
       <c r="G278" s="10"/>
     </row>
     <row r="279" spans="3:7">
-      <c r="C279" s="68"/>
-      <c r="D279" s="75"/>
-      <c r="E279" s="78"/>
+      <c r="C279" s="74"/>
+      <c r="D279" s="77"/>
+      <c r="E279" s="70"/>
       <c r="F279" s="51"/>
       <c r="G279" s="10"/>
     </row>
     <row r="280" spans="3:7" ht="21">
-      <c r="C280" s="68"/>
-      <c r="D280" s="76"/>
+      <c r="C280" s="74"/>
+      <c r="D280" s="78"/>
       <c r="E280" s="51" t="s">
         <v>402</v>
       </c>
@@ -9653,64 +9653,64 @@
       <c r="G280" s="10"/>
     </row>
     <row r="281" spans="3:7" ht="21">
-      <c r="C281" s="68"/>
-      <c r="D281" s="74" t="s">
+      <c r="C281" s="74"/>
+      <c r="D281" s="76" t="s">
         <v>412</v>
       </c>
       <c r="E281" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="F281" s="80" t="s">
+      <c r="F281" s="79" t="s">
         <v>409</v>
       </c>
       <c r="G281" s="10"/>
     </row>
     <row r="282" spans="3:7" ht="21">
-      <c r="C282" s="68"/>
-      <c r="D282" s="75"/>
+      <c r="C282" s="74"/>
+      <c r="D282" s="77"/>
       <c r="E282" s="52" t="s">
         <v>399</v>
       </c>
-      <c r="F282" s="79"/>
+      <c r="F282" s="73"/>
       <c r="G282" s="10"/>
     </row>
     <row r="283" spans="3:7" ht="19" customHeight="1">
-      <c r="C283" s="68"/>
-      <c r="D283" s="75"/>
-      <c r="E283" s="77" t="s">
+      <c r="C283" s="74"/>
+      <c r="D283" s="77"/>
+      <c r="E283" s="72" t="s">
         <v>400</v>
       </c>
-      <c r="F283" s="77" t="s">
+      <c r="F283" s="72" t="s">
         <v>408</v>
       </c>
       <c r="G283" s="10"/>
     </row>
     <row r="284" spans="3:7">
-      <c r="C284" s="68"/>
-      <c r="D284" s="75"/>
-      <c r="E284" s="78"/>
-      <c r="F284" s="81"/>
+      <c r="C284" s="74"/>
+      <c r="D284" s="77"/>
+      <c r="E284" s="70"/>
+      <c r="F284" s="80"/>
       <c r="G284" s="10"/>
     </row>
     <row r="285" spans="3:7" ht="22" customHeight="1">
-      <c r="C285" s="68"/>
-      <c r="D285" s="75"/>
-      <c r="E285" s="77" t="s">
+      <c r="C285" s="74"/>
+      <c r="D285" s="77"/>
+      <c r="E285" s="72" t="s">
         <v>407</v>
       </c>
       <c r="F285" s="51"/>
       <c r="G285" s="10"/>
     </row>
     <row r="286" spans="3:7">
-      <c r="C286" s="68"/>
-      <c r="D286" s="75"/>
-      <c r="E286" s="78"/>
+      <c r="C286" s="74"/>
+      <c r="D286" s="77"/>
+      <c r="E286" s="70"/>
       <c r="F286" s="51"/>
       <c r="G286" s="10"/>
     </row>
     <row r="287" spans="3:7" ht="21">
-      <c r="C287" s="68"/>
-      <c r="D287" s="76"/>
+      <c r="C287" s="74"/>
+      <c r="D287" s="78"/>
       <c r="E287" s="51" t="s">
         <v>402</v>
       </c>
@@ -9718,211 +9718,211 @@
       <c r="G287" s="10"/>
     </row>
     <row r="288" spans="3:7" ht="21" customHeight="1">
-      <c r="C288" s="68"/>
-      <c r="D288" s="74" t="s">
+      <c r="C288" s="74"/>
+      <c r="D288" s="76" t="s">
         <v>362</v>
       </c>
       <c r="E288" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="F288" s="80" t="s">
+      <c r="F288" s="79" t="s">
         <v>367</v>
       </c>
       <c r="G288" s="10"/>
     </row>
     <row r="289" spans="3:7" ht="21" customHeight="1">
-      <c r="C289" s="68"/>
-      <c r="D289" s="75"/>
+      <c r="C289" s="74"/>
+      <c r="D289" s="77"/>
       <c r="E289" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="F289" s="79"/>
+      <c r="F289" s="73"/>
       <c r="G289" s="10"/>
     </row>
     <row r="290" spans="3:7">
-      <c r="C290" s="68"/>
-      <c r="D290" s="75"/>
+      <c r="C290" s="74"/>
+      <c r="D290" s="77"/>
       <c r="E290" s="52"/>
-      <c r="F290" s="78"/>
+      <c r="F290" s="70"/>
       <c r="G290" s="10"/>
     </row>
     <row r="291" spans="3:7" ht="20" customHeight="1">
-      <c r="C291" s="68"/>
-      <c r="D291" s="75"/>
+      <c r="C291" s="74"/>
+      <c r="D291" s="77"/>
       <c r="E291" s="52"/>
-      <c r="F291" s="77" t="s">
+      <c r="F291" s="72" t="s">
         <v>404</v>
       </c>
       <c r="G291" s="10"/>
     </row>
     <row r="292" spans="3:7">
-      <c r="C292" s="68"/>
-      <c r="D292" s="75"/>
+      <c r="C292" s="74"/>
+      <c r="D292" s="77"/>
       <c r="E292" s="54"/>
-      <c r="F292" s="81"/>
+      <c r="F292" s="80"/>
       <c r="G292" s="10"/>
     </row>
     <row r="293" spans="3:7" ht="21" customHeight="1">
-      <c r="C293" s="68"/>
-      <c r="D293" s="74" t="s">
+      <c r="C293" s="74"/>
+      <c r="D293" s="76" t="s">
         <v>363</v>
       </c>
-      <c r="E293" s="79" t="s">
+      <c r="E293" s="73" t="s">
         <v>368</v>
       </c>
-      <c r="F293" s="80" t="s">
+      <c r="F293" s="79" t="s">
         <v>369</v>
       </c>
       <c r="G293" s="10"/>
     </row>
     <row r="294" spans="3:7" ht="21" customHeight="1">
-      <c r="C294" s="68"/>
-      <c r="D294" s="75"/>
-      <c r="E294" s="78"/>
-      <c r="F294" s="79"/>
+      <c r="C294" s="74"/>
+      <c r="D294" s="77"/>
+      <c r="E294" s="70"/>
+      <c r="F294" s="73"/>
       <c r="G294" s="10"/>
     </row>
     <row r="295" spans="3:7" ht="21" customHeight="1">
-      <c r="C295" s="68"/>
-      <c r="D295" s="75"/>
+      <c r="C295" s="74"/>
+      <c r="D295" s="77"/>
       <c r="E295" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F295" s="79"/>
+      <c r="F295" s="73"/>
       <c r="G295" s="10"/>
     </row>
     <row r="296" spans="3:7">
-      <c r="C296" s="68"/>
-      <c r="D296" s="75"/>
+      <c r="C296" s="74"/>
+      <c r="D296" s="77"/>
       <c r="E296" s="43"/>
-      <c r="F296" s="78"/>
+      <c r="F296" s="70"/>
       <c r="G296" s="10"/>
     </row>
     <row r="297" spans="3:7" ht="20" customHeight="1">
-      <c r="C297" s="68"/>
-      <c r="D297" s="75"/>
+      <c r="C297" s="74"/>
+      <c r="D297" s="77"/>
       <c r="E297" s="43"/>
-      <c r="F297" s="77" t="s">
+      <c r="F297" s="72" t="s">
         <v>406</v>
       </c>
       <c r="G297" s="10"/>
     </row>
     <row r="298" spans="3:7">
-      <c r="C298" s="68"/>
-      <c r="D298" s="75"/>
+      <c r="C298" s="74"/>
+      <c r="D298" s="77"/>
       <c r="E298" s="43"/>
-      <c r="F298" s="81"/>
+      <c r="F298" s="80"/>
       <c r="G298" s="10"/>
     </row>
     <row r="299" spans="3:7" ht="21" customHeight="1">
-      <c r="C299" s="68"/>
-      <c r="D299" s="74" t="s">
+      <c r="C299" s="74"/>
+      <c r="D299" s="76" t="s">
         <v>364</v>
       </c>
-      <c r="E299" s="77" t="s">
+      <c r="E299" s="72" t="s">
         <v>370</v>
       </c>
-      <c r="F299" s="80" t="s">
+      <c r="F299" s="79" t="s">
         <v>371</v>
       </c>
       <c r="G299" s="10"/>
     </row>
     <row r="300" spans="3:7" ht="21" customHeight="1">
-      <c r="C300" s="68"/>
-      <c r="D300" s="75"/>
-      <c r="E300" s="78"/>
-      <c r="F300" s="79"/>
+      <c r="C300" s="74"/>
+      <c r="D300" s="77"/>
+      <c r="E300" s="70"/>
+      <c r="F300" s="73"/>
       <c r="G300" s="10"/>
     </row>
     <row r="301" spans="3:7" ht="21" customHeight="1">
-      <c r="C301" s="68"/>
-      <c r="D301" s="75"/>
+      <c r="C301" s="74"/>
+      <c r="D301" s="77"/>
       <c r="E301" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F301" s="79"/>
+      <c r="F301" s="73"/>
       <c r="G301" s="10"/>
     </row>
     <row r="302" spans="3:7">
-      <c r="C302" s="68"/>
-      <c r="D302" s="75"/>
+      <c r="C302" s="74"/>
+      <c r="D302" s="77"/>
       <c r="E302" s="43"/>
-      <c r="F302" s="78"/>
+      <c r="F302" s="70"/>
       <c r="G302" s="10"/>
     </row>
     <row r="303" spans="3:7" ht="20" customHeight="1">
-      <c r="C303" s="68"/>
-      <c r="D303" s="75"/>
+      <c r="C303" s="74"/>
+      <c r="D303" s="77"/>
       <c r="E303" s="43"/>
-      <c r="F303" s="77" t="s">
+      <c r="F303" s="72" t="s">
         <v>404</v>
       </c>
       <c r="G303" s="10"/>
     </row>
     <row r="304" spans="3:7">
-      <c r="C304" s="68"/>
-      <c r="D304" s="75"/>
+      <c r="C304" s="74"/>
+      <c r="D304" s="77"/>
       <c r="E304" s="43"/>
-      <c r="F304" s="81"/>
+      <c r="F304" s="80"/>
       <c r="G304" s="10"/>
     </row>
     <row r="305" spans="3:7" ht="21" customHeight="1">
-      <c r="C305" s="68"/>
-      <c r="D305" s="74" t="s">
+      <c r="C305" s="74"/>
+      <c r="D305" s="76" t="s">
         <v>365</v>
       </c>
-      <c r="E305" s="77" t="s">
+      <c r="E305" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="F305" s="80" t="s">
+      <c r="F305" s="79" t="s">
         <v>373</v>
       </c>
       <c r="G305" s="10"/>
     </row>
     <row r="306" spans="3:7" ht="21" customHeight="1">
-      <c r="C306" s="68"/>
-      <c r="D306" s="75"/>
-      <c r="E306" s="78"/>
-      <c r="F306" s="79"/>
+      <c r="C306" s="74"/>
+      <c r="D306" s="77"/>
+      <c r="E306" s="70"/>
+      <c r="F306" s="73"/>
       <c r="G306" s="10"/>
     </row>
     <row r="307" spans="3:7" ht="21" customHeight="1">
-      <c r="C307" s="68"/>
-      <c r="D307" s="75"/>
+      <c r="C307" s="74"/>
+      <c r="D307" s="77"/>
       <c r="E307" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F307" s="79"/>
+      <c r="F307" s="73"/>
       <c r="G307" s="10"/>
     </row>
     <row r="308" spans="3:7">
-      <c r="C308" s="68"/>
-      <c r="D308" s="75"/>
+      <c r="C308" s="74"/>
+      <c r="D308" s="77"/>
       <c r="E308" s="43"/>
-      <c r="F308" s="78"/>
+      <c r="F308" s="70"/>
       <c r="G308" s="10"/>
     </row>
     <row r="309" spans="3:7" ht="20" customHeight="1">
-      <c r="C309" s="68"/>
-      <c r="D309" s="75"/>
+      <c r="C309" s="74"/>
+      <c r="D309" s="77"/>
       <c r="E309" s="43"/>
-      <c r="F309" s="77" t="s">
+      <c r="F309" s="72" t="s">
         <v>406</v>
       </c>
       <c r="G309" s="10"/>
     </row>
     <row r="310" spans="3:7">
-      <c r="C310" s="68"/>
-      <c r="D310" s="75"/>
+      <c r="C310" s="74"/>
+      <c r="D310" s="77"/>
       <c r="E310" s="43"/>
-      <c r="F310" s="81"/>
+      <c r="F310" s="80"/>
       <c r="G310" s="10"/>
     </row>
     <row r="311" spans="3:7" ht="21">
-      <c r="C311" s="68" t="s">
+      <c r="C311" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="D311" s="87" t="s">
+      <c r="D311" s="86" t="s">
         <v>74</v>
       </c>
       <c r="E311" s="23" t="s">
@@ -9932,100 +9932,100 @@
       <c r="G311" s="9"/>
     </row>
     <row r="312" spans="3:7" ht="21" customHeight="1">
-      <c r="C312" s="68"/>
-      <c r="D312" s="75"/>
-      <c r="E312" s="77" t="s">
+      <c r="C312" s="74"/>
+      <c r="D312" s="77"/>
+      <c r="E312" s="72" t="s">
         <v>183</v>
       </c>
       <c r="F312" s="24"/>
       <c r="G312" s="10"/>
     </row>
     <row r="313" spans="3:7" ht="21">
-      <c r="C313" s="68"/>
-      <c r="D313" s="75"/>
-      <c r="E313" s="78"/>
+      <c r="C313" s="74"/>
+      <c r="D313" s="77"/>
+      <c r="E313" s="70"/>
       <c r="F313" s="24" t="s">
         <v>192</v>
       </c>
       <c r="G313" s="10"/>
     </row>
     <row r="314" spans="3:7" ht="19" customHeight="1">
-      <c r="C314" s="68"/>
-      <c r="D314" s="75"/>
+      <c r="C314" s="74"/>
+      <c r="D314" s="77"/>
       <c r="E314" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="F314" s="77" t="s">
+      <c r="F314" s="72" t="s">
         <v>185</v>
       </c>
       <c r="G314" s="10"/>
     </row>
     <row r="315" spans="3:7">
-      <c r="C315" s="68"/>
-      <c r="D315" s="76"/>
+      <c r="C315" s="74"/>
+      <c r="D315" s="78"/>
       <c r="E315" s="18"/>
-      <c r="F315" s="78"/>
+      <c r="F315" s="70"/>
       <c r="G315" s="10"/>
     </row>
     <row r="316" spans="3:7" ht="21">
-      <c r="C316" s="68"/>
-      <c r="D316" s="74" t="s">
+      <c r="C316" s="74"/>
+      <c r="D316" s="76" t="s">
         <v>410</v>
       </c>
       <c r="E316" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="F316" s="80" t="s">
+      <c r="F316" s="79" t="s">
         <v>403</v>
       </c>
       <c r="G316" s="10"/>
     </row>
     <row r="317" spans="3:7" ht="21">
-      <c r="C317" s="68"/>
-      <c r="D317" s="75"/>
+      <c r="C317" s="74"/>
+      <c r="D317" s="77"/>
       <c r="E317" s="52" t="s">
         <v>399</v>
       </c>
-      <c r="F317" s="79"/>
+      <c r="F317" s="73"/>
       <c r="G317" s="10"/>
     </row>
     <row r="318" spans="3:7" ht="19" customHeight="1">
-      <c r="C318" s="68"/>
-      <c r="D318" s="75"/>
-      <c r="E318" s="77" t="s">
+      <c r="C318" s="74"/>
+      <c r="D318" s="77"/>
+      <c r="E318" s="72" t="s">
         <v>400</v>
       </c>
-      <c r="F318" s="77" t="s">
+      <c r="F318" s="72" t="s">
         <v>417</v>
       </c>
       <c r="G318" s="10"/>
     </row>
     <row r="319" spans="3:7">
-      <c r="C319" s="68"/>
-      <c r="D319" s="75"/>
-      <c r="E319" s="78"/>
-      <c r="F319" s="81"/>
+      <c r="C319" s="74"/>
+      <c r="D319" s="77"/>
+      <c r="E319" s="70"/>
+      <c r="F319" s="80"/>
       <c r="G319" s="10"/>
     </row>
     <row r="320" spans="3:7" ht="22" customHeight="1">
-      <c r="C320" s="68"/>
-      <c r="D320" s="75"/>
-      <c r="E320" s="77" t="s">
+      <c r="C320" s="74"/>
+      <c r="D320" s="77"/>
+      <c r="E320" s="72" t="s">
         <v>413</v>
       </c>
       <c r="F320" s="51"/>
       <c r="G320" s="10"/>
     </row>
     <row r="321" spans="3:7">
-      <c r="C321" s="68"/>
-      <c r="D321" s="75"/>
-      <c r="E321" s="78"/>
+      <c r="C321" s="74"/>
+      <c r="D321" s="77"/>
+      <c r="E321" s="70"/>
       <c r="F321" s="51"/>
       <c r="G321" s="10"/>
     </row>
     <row r="322" spans="3:7" ht="21">
-      <c r="C322" s="68"/>
-      <c r="D322" s="75"/>
+      <c r="C322" s="74"/>
+      <c r="D322" s="77"/>
       <c r="E322" s="51" t="s">
         <v>402</v>
       </c>
@@ -10033,24 +10033,24 @@
       <c r="G322" s="10"/>
     </row>
     <row r="323" spans="3:7" ht="21" customHeight="1">
-      <c r="C323" s="68"/>
-      <c r="D323" s="75"/>
-      <c r="E323" s="79" t="s">
+      <c r="C323" s="74"/>
+      <c r="D323" s="77"/>
+      <c r="E323" s="73" t="s">
         <v>414</v>
       </c>
       <c r="F323" s="51"/>
       <c r="G323" s="10"/>
     </row>
     <row r="324" spans="3:7">
-      <c r="C324" s="68"/>
-      <c r="D324" s="75"/>
-      <c r="E324" s="81"/>
+      <c r="C324" s="74"/>
+      <c r="D324" s="77"/>
+      <c r="E324" s="80"/>
       <c r="F324" s="51"/>
       <c r="G324" s="10"/>
     </row>
     <row r="325" spans="3:7" ht="21">
-      <c r="C325" s="68"/>
-      <c r="D325" s="75"/>
+      <c r="C325" s="74"/>
+      <c r="D325" s="77"/>
       <c r="E325" s="51" t="s">
         <v>415</v>
       </c>
@@ -10058,8 +10058,8 @@
       <c r="G325" s="10"/>
     </row>
     <row r="326" spans="3:7" ht="21">
-      <c r="C326" s="68"/>
-      <c r="D326" s="76"/>
+      <c r="C326" s="74"/>
+      <c r="D326" s="78"/>
       <c r="E326" s="51" t="s">
         <v>416</v>
       </c>
@@ -10067,64 +10067,64 @@
       <c r="G326" s="10"/>
     </row>
     <row r="327" spans="3:7" ht="21">
-      <c r="C327" s="68"/>
-      <c r="D327" s="74" t="s">
+      <c r="C327" s="74"/>
+      <c r="D327" s="76" t="s">
         <v>411</v>
       </c>
       <c r="E327" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="F327" s="80" t="s">
+      <c r="F327" s="79" t="s">
         <v>409</v>
       </c>
       <c r="G327" s="10"/>
     </row>
     <row r="328" spans="3:7" ht="21">
-      <c r="C328" s="68"/>
-      <c r="D328" s="75"/>
+      <c r="C328" s="74"/>
+      <c r="D328" s="77"/>
       <c r="E328" s="52" t="s">
         <v>399</v>
       </c>
-      <c r="F328" s="79"/>
+      <c r="F328" s="73"/>
       <c r="G328" s="10"/>
     </row>
     <row r="329" spans="3:7" ht="19" customHeight="1">
-      <c r="C329" s="68"/>
-      <c r="D329" s="75"/>
-      <c r="E329" s="77" t="s">
+      <c r="C329" s="74"/>
+      <c r="D329" s="77"/>
+      <c r="E329" s="72" t="s">
         <v>400</v>
       </c>
-      <c r="F329" s="77" t="s">
+      <c r="F329" s="72" t="s">
         <v>419</v>
       </c>
       <c r="G329" s="10"/>
     </row>
     <row r="330" spans="3:7">
-      <c r="C330" s="68"/>
-      <c r="D330" s="75"/>
-      <c r="E330" s="78"/>
-      <c r="F330" s="81"/>
+      <c r="C330" s="74"/>
+      <c r="D330" s="77"/>
+      <c r="E330" s="70"/>
+      <c r="F330" s="80"/>
       <c r="G330" s="10"/>
     </row>
     <row r="331" spans="3:7" ht="22" customHeight="1">
-      <c r="C331" s="68"/>
-      <c r="D331" s="75"/>
-      <c r="E331" s="77" t="s">
+      <c r="C331" s="74"/>
+      <c r="D331" s="77"/>
+      <c r="E331" s="72" t="s">
         <v>413</v>
       </c>
       <c r="F331" s="51"/>
       <c r="G331" s="10"/>
     </row>
     <row r="332" spans="3:7">
-      <c r="C332" s="68"/>
-      <c r="D332" s="75"/>
-      <c r="E332" s="78"/>
+      <c r="C332" s="74"/>
+      <c r="D332" s="77"/>
+      <c r="E332" s="70"/>
       <c r="F332" s="51"/>
       <c r="G332" s="10"/>
     </row>
     <row r="333" spans="3:7" ht="21">
-      <c r="C333" s="68"/>
-      <c r="D333" s="75"/>
+      <c r="C333" s="74"/>
+      <c r="D333" s="77"/>
       <c r="E333" s="51" t="s">
         <v>402</v>
       </c>
@@ -10132,40 +10132,40 @@
       <c r="G333" s="10"/>
     </row>
     <row r="334" spans="3:7" ht="21" customHeight="1">
-      <c r="C334" s="68"/>
-      <c r="D334" s="75"/>
-      <c r="E334" s="79" t="s">
+      <c r="C334" s="74"/>
+      <c r="D334" s="77"/>
+      <c r="E334" s="73" t="s">
         <v>414</v>
       </c>
       <c r="F334" s="51"/>
       <c r="G334" s="10"/>
     </row>
     <row r="335" spans="3:7">
-      <c r="C335" s="68"/>
-      <c r="D335" s="75"/>
-      <c r="E335" s="81"/>
+      <c r="C335" s="74"/>
+      <c r="D335" s="77"/>
+      <c r="E335" s="80"/>
       <c r="F335" s="51"/>
       <c r="G335" s="10"/>
     </row>
     <row r="336" spans="3:7" ht="21" customHeight="1">
-      <c r="C336" s="68"/>
-      <c r="D336" s="75"/>
-      <c r="E336" s="80" t="s">
+      <c r="C336" s="74"/>
+      <c r="D336" s="77"/>
+      <c r="E336" s="79" t="s">
         <v>418</v>
       </c>
       <c r="F336" s="51"/>
       <c r="G336" s="10"/>
     </row>
     <row r="337" spans="3:7">
-      <c r="C337" s="68"/>
-      <c r="D337" s="75"/>
-      <c r="E337" s="79"/>
+      <c r="C337" s="74"/>
+      <c r="D337" s="77"/>
+      <c r="E337" s="73"/>
       <c r="F337" s="51"/>
       <c r="G337" s="10"/>
     </row>
     <row r="338" spans="3:7" ht="21">
-      <c r="C338" s="68"/>
-      <c r="D338" s="76"/>
+      <c r="C338" s="74"/>
+      <c r="D338" s="78"/>
       <c r="E338" s="54" t="s">
         <v>416</v>
       </c>
@@ -10173,7 +10173,7 @@
       <c r="G338" s="10"/>
     </row>
     <row r="339" spans="3:7" ht="21">
-      <c r="C339" s="73"/>
+      <c r="C339" s="85"/>
       <c r="D339" s="45" t="s">
         <v>374</v>
       </c>
@@ -10186,10 +10186,10 @@
       <c r="G339" s="3"/>
     </row>
     <row r="340" spans="3:7" ht="21">
-      <c r="C340" s="72" t="s">
+      <c r="C340" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="D340" s="87" t="s">
+      <c r="D340" s="86" t="s">
         <v>57</v>
       </c>
       <c r="E340" s="23" t="s">
@@ -10199,8 +10199,8 @@
       <c r="G340" s="9"/>
     </row>
     <row r="341" spans="3:7" ht="21">
-      <c r="C341" s="68"/>
-      <c r="D341" s="75"/>
+      <c r="C341" s="74"/>
+      <c r="D341" s="77"/>
       <c r="E341" s="56" t="s">
         <v>187</v>
       </c>
@@ -10210,66 +10210,66 @@
       <c r="G341" s="10"/>
     </row>
     <row r="342" spans="3:7" ht="21" customHeight="1">
-      <c r="C342" s="68"/>
-      <c r="D342" s="75"/>
+      <c r="C342" s="74"/>
+      <c r="D342" s="77"/>
       <c r="E342" s="56"/>
-      <c r="F342" s="77" t="s">
+      <c r="F342" s="72" t="s">
         <v>191</v>
       </c>
       <c r="G342" s="10"/>
     </row>
     <row r="343" spans="3:7">
-      <c r="C343" s="68"/>
-      <c r="D343" s="76"/>
+      <c r="C343" s="74"/>
+      <c r="D343" s="78"/>
       <c r="E343" s="56"/>
-      <c r="F343" s="78"/>
+      <c r="F343" s="70"/>
       <c r="G343" s="10"/>
     </row>
     <row r="344" spans="3:7" ht="21">
-      <c r="C344" s="68"/>
-      <c r="D344" s="74" t="s">
+      <c r="C344" s="74"/>
+      <c r="D344" s="76" t="s">
         <v>67</v>
       </c>
       <c r="E344" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="F344" s="77" t="s">
+      <c r="F344" s="72" t="s">
         <v>190</v>
       </c>
       <c r="G344" s="10"/>
     </row>
     <row r="345" spans="3:7">
-      <c r="C345" s="68"/>
-      <c r="D345" s="76"/>
+      <c r="C345" s="74"/>
+      <c r="D345" s="78"/>
       <c r="E345" s="24"/>
-      <c r="F345" s="78"/>
+      <c r="F345" s="70"/>
       <c r="G345" s="10"/>
     </row>
     <row r="346" spans="3:7" ht="21">
-      <c r="C346" s="68"/>
-      <c r="D346" s="74" t="s">
+      <c r="C346" s="74"/>
+      <c r="D346" s="76" t="s">
         <v>68</v>
       </c>
       <c r="E346" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="F346" s="77" t="s">
+      <c r="F346" s="72" t="s">
         <v>197</v>
       </c>
       <c r="G346" s="10"/>
     </row>
     <row r="347" spans="3:7">
-      <c r="C347" s="68"/>
-      <c r="D347" s="75"/>
+      <c r="C347" s="74"/>
+      <c r="D347" s="77"/>
       <c r="E347" s="20"/>
-      <c r="F347" s="79"/>
+      <c r="F347" s="73"/>
       <c r="G347" s="30"/>
     </row>
     <row r="348" spans="3:7" ht="21">
-      <c r="C348" s="68" t="s">
+      <c r="C348" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="D348" s="83" t="s">
+      <c r="D348" s="88" t="s">
         <v>58</v>
       </c>
       <c r="E348" s="23" t="s">
@@ -10279,8 +10279,8 @@
       <c r="G348" s="9"/>
     </row>
     <row r="349" spans="3:7" ht="21" customHeight="1">
-      <c r="C349" s="68"/>
-      <c r="D349" s="84"/>
+      <c r="C349" s="74"/>
+      <c r="D349" s="81"/>
       <c r="E349" s="71" t="s">
         <v>200</v>
       </c>
@@ -10290,15 +10290,15 @@
       <c r="G349" s="3"/>
     </row>
     <row r="350" spans="3:7">
-      <c r="C350" s="68"/>
-      <c r="D350" s="84"/>
+      <c r="C350" s="74"/>
+      <c r="D350" s="81"/>
       <c r="E350" s="71"/>
       <c r="F350" s="71"/>
       <c r="G350" s="3"/>
     </row>
     <row r="351" spans="3:7" ht="19" customHeight="1">
-      <c r="C351" s="68"/>
-      <c r="D351" s="84"/>
+      <c r="C351" s="74"/>
+      <c r="D351" s="81"/>
       <c r="E351" s="24" t="s">
         <v>276</v>
       </c>
@@ -10308,22 +10308,22 @@
       <c r="G351" s="3"/>
     </row>
     <row r="352" spans="3:7" ht="19" customHeight="1">
-      <c r="C352" s="68"/>
-      <c r="D352" s="84"/>
+      <c r="C352" s="74"/>
+      <c r="D352" s="81"/>
       <c r="E352" s="24"/>
       <c r="F352" s="71"/>
       <c r="G352" s="3"/>
     </row>
     <row r="353" spans="3:7" ht="19" customHeight="1">
-      <c r="C353" s="68"/>
-      <c r="D353" s="84"/>
+      <c r="C353" s="74"/>
+      <c r="D353" s="81"/>
       <c r="E353" s="24"/>
       <c r="F353" s="24"/>
       <c r="G353" s="3"/>
     </row>
     <row r="354" spans="3:7" ht="21" customHeight="1">
-      <c r="C354" s="68"/>
-      <c r="D354" s="84" t="s">
+      <c r="C354" s="74"/>
+      <c r="D354" s="81" t="s">
         <v>201</v>
       </c>
       <c r="E354" s="71" t="s">
@@ -10335,15 +10335,15 @@
       <c r="G354" s="3"/>
     </row>
     <row r="355" spans="3:7">
-      <c r="C355" s="68"/>
-      <c r="D355" s="84"/>
+      <c r="C355" s="74"/>
+      <c r="D355" s="81"/>
       <c r="E355" s="71"/>
       <c r="F355" s="71"/>
       <c r="G355" s="3"/>
     </row>
     <row r="356" spans="3:7" ht="22" customHeight="1">
-      <c r="C356" s="68"/>
-      <c r="D356" s="84"/>
+      <c r="C356" s="74"/>
+      <c r="D356" s="81"/>
       <c r="E356" s="71" t="s">
         <v>200</v>
       </c>
@@ -10353,15 +10353,15 @@
       <c r="G356" s="3"/>
     </row>
     <row r="357" spans="3:7">
-      <c r="C357" s="68"/>
-      <c r="D357" s="84"/>
+      <c r="C357" s="74"/>
+      <c r="D357" s="81"/>
       <c r="E357" s="71"/>
       <c r="F357" s="71"/>
       <c r="G357" s="3"/>
     </row>
     <row r="358" spans="3:7" ht="21">
-      <c r="C358" s="68"/>
-      <c r="D358" s="84"/>
+      <c r="C358" s="74"/>
+      <c r="D358" s="81"/>
       <c r="E358" s="24" t="s">
         <v>276</v>
       </c>
@@ -10371,15 +10371,15 @@
       <c r="G358" s="3"/>
     </row>
     <row r="359" spans="3:7">
-      <c r="C359" s="68"/>
-      <c r="D359" s="84"/>
+      <c r="C359" s="74"/>
+      <c r="D359" s="81"/>
       <c r="E359" s="24"/>
       <c r="F359" s="71"/>
       <c r="G359" s="3"/>
     </row>
     <row r="360" spans="3:7" ht="21" customHeight="1">
-      <c r="C360" s="68"/>
-      <c r="D360" s="85" t="s">
+      <c r="C360" s="74"/>
+      <c r="D360" s="91" t="s">
         <v>75</v>
       </c>
       <c r="E360" s="24" t="s">
@@ -10391,8 +10391,8 @@
       <c r="G360" s="3"/>
     </row>
     <row r="361" spans="3:7">
-      <c r="C361" s="68"/>
-      <c r="D361" s="85"/>
+      <c r="C361" s="74"/>
+      <c r="D361" s="91"/>
       <c r="E361" s="71" t="s">
         <v>200</v>
       </c>
@@ -10400,8 +10400,8 @@
       <c r="G361" s="3"/>
     </row>
     <row r="362" spans="3:7">
-      <c r="C362" s="68"/>
-      <c r="D362" s="85"/>
+      <c r="C362" s="74"/>
+      <c r="D362" s="91"/>
       <c r="E362" s="71"/>
       <c r="F362" s="71" t="s">
         <v>204</v>
@@ -10409,8 +10409,8 @@
       <c r="G362" s="3"/>
     </row>
     <row r="363" spans="3:7" ht="21">
-      <c r="C363" s="68"/>
-      <c r="D363" s="85"/>
+      <c r="C363" s="74"/>
+      <c r="D363" s="91"/>
       <c r="E363" s="24" t="s">
         <v>276</v>
       </c>
@@ -10418,11 +10418,11 @@
       <c r="G363" s="3"/>
     </row>
     <row r="364" spans="3:7" ht="20" customHeight="1">
-      <c r="C364" s="68"/>
-      <c r="D364" s="84" t="s">
+      <c r="C364" s="74"/>
+      <c r="D364" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="E364" s="70" t="s">
+      <c r="E364" s="90" t="s">
         <v>211</v>
       </c>
       <c r="F364" s="71" t="s">
@@ -10431,15 +10431,15 @@
       <c r="G364" s="3"/>
     </row>
     <row r="365" spans="3:7">
-      <c r="C365" s="68"/>
-      <c r="D365" s="84"/>
-      <c r="E365" s="70"/>
+      <c r="C365" s="74"/>
+      <c r="D365" s="81"/>
+      <c r="E365" s="90"/>
       <c r="F365" s="71"/>
       <c r="G365" s="3"/>
     </row>
     <row r="366" spans="3:7">
-      <c r="C366" s="68"/>
-      <c r="D366" s="84"/>
+      <c r="C366" s="74"/>
+      <c r="D366" s="81"/>
       <c r="E366" s="71" t="s">
         <v>200</v>
       </c>
@@ -10449,15 +10449,15 @@
       <c r="G366" s="3"/>
     </row>
     <row r="367" spans="3:7">
-      <c r="C367" s="68"/>
-      <c r="D367" s="84"/>
+      <c r="C367" s="74"/>
+      <c r="D367" s="81"/>
       <c r="E367" s="71"/>
       <c r="F367" s="71"/>
       <c r="G367" s="3"/>
     </row>
     <row r="368" spans="3:7" ht="21">
-      <c r="C368" s="68"/>
-      <c r="D368" s="84"/>
+      <c r="C368" s="74"/>
+      <c r="D368" s="81"/>
       <c r="E368" s="24" t="s">
         <v>276</v>
       </c>
@@ -10465,8 +10465,8 @@
       <c r="G368" s="3"/>
     </row>
     <row r="369" spans="3:7" ht="21" customHeight="1">
-      <c r="C369" s="68"/>
-      <c r="D369" s="84" t="s">
+      <c r="C369" s="74"/>
+      <c r="D369" s="81" t="s">
         <v>210</v>
       </c>
       <c r="E369" s="10" t="s">
@@ -10478,8 +10478,8 @@
       <c r="G369" s="3"/>
     </row>
     <row r="370" spans="3:7" ht="20" customHeight="1">
-      <c r="C370" s="68"/>
-      <c r="D370" s="84"/>
+      <c r="C370" s="74"/>
+      <c r="D370" s="81"/>
       <c r="E370" s="10"/>
       <c r="F370" s="71" t="s">
         <v>215</v>
@@ -10487,42 +10487,42 @@
       <c r="G370" s="3"/>
     </row>
     <row r="371" spans="3:7">
-      <c r="C371" s="68"/>
-      <c r="D371" s="84"/>
+      <c r="C371" s="74"/>
+      <c r="D371" s="81"/>
       <c r="E371" s="10"/>
       <c r="F371" s="71"/>
       <c r="G371" s="3"/>
     </row>
     <row r="372" spans="3:7">
-      <c r="C372" s="68"/>
-      <c r="D372" s="84"/>
+      <c r="C372" s="74"/>
+      <c r="D372" s="81"/>
       <c r="E372" s="11"/>
-      <c r="F372" s="82"/>
+      <c r="F372" s="83"/>
       <c r="G372" s="4"/>
     </row>
     <row r="373" spans="3:7" ht="21" customHeight="1">
-      <c r="C373" s="68"/>
-      <c r="D373" s="84" t="s">
+      <c r="C373" s="74"/>
+      <c r="D373" s="81" t="s">
         <v>384</v>
       </c>
-      <c r="E373" s="97" t="s">
+      <c r="E373" s="69" t="s">
         <v>387</v>
       </c>
-      <c r="F373" s="97" t="s">
+      <c r="F373" s="69" t="s">
         <v>205</v>
       </c>
       <c r="G373" s="9"/>
     </row>
     <row r="374" spans="3:7">
-      <c r="C374" s="68"/>
-      <c r="D374" s="84"/>
+      <c r="C374" s="74"/>
+      <c r="D374" s="81"/>
       <c r="E374" s="71"/>
       <c r="F374" s="71"/>
       <c r="G374" s="10"/>
     </row>
     <row r="375" spans="3:7">
-      <c r="C375" s="68"/>
-      <c r="D375" s="84"/>
+      <c r="C375" s="74"/>
+      <c r="D375" s="81"/>
       <c r="E375" s="71" t="s">
         <v>200</v>
       </c>
@@ -10532,15 +10532,15 @@
       <c r="G375" s="10"/>
     </row>
     <row r="376" spans="3:7">
-      <c r="C376" s="68"/>
-      <c r="D376" s="84"/>
+      <c r="C376" s="74"/>
+      <c r="D376" s="81"/>
       <c r="E376" s="71"/>
       <c r="F376" s="71"/>
       <c r="G376" s="10"/>
     </row>
     <row r="377" spans="3:7" ht="21">
-      <c r="C377" s="68"/>
-      <c r="D377" s="84"/>
+      <c r="C377" s="74"/>
+      <c r="D377" s="81"/>
       <c r="E377" s="56" t="s">
         <v>276</v>
       </c>
@@ -10550,15 +10550,15 @@
       <c r="G377" s="10"/>
     </row>
     <row r="378" spans="3:7">
-      <c r="C378" s="68"/>
-      <c r="D378" s="84"/>
+      <c r="C378" s="74"/>
+      <c r="D378" s="81"/>
       <c r="E378" s="56"/>
       <c r="F378" s="71"/>
       <c r="G378" s="10"/>
     </row>
     <row r="379" spans="3:7" ht="21" customHeight="1">
-      <c r="C379" s="68"/>
-      <c r="D379" s="84" t="s">
+      <c r="C379" s="74"/>
+      <c r="D379" s="81" t="s">
         <v>385</v>
       </c>
       <c r="E379" s="71" t="s">
@@ -10570,15 +10570,15 @@
       <c r="G379" s="10"/>
     </row>
     <row r="380" spans="3:7">
-      <c r="C380" s="68"/>
-      <c r="D380" s="84"/>
+      <c r="C380" s="74"/>
+      <c r="D380" s="81"/>
       <c r="E380" s="71"/>
       <c r="F380" s="71"/>
       <c r="G380" s="10"/>
     </row>
     <row r="381" spans="3:7">
-      <c r="C381" s="68"/>
-      <c r="D381" s="84"/>
+      <c r="C381" s="74"/>
+      <c r="D381" s="81"/>
       <c r="E381" s="71" t="s">
         <v>200</v>
       </c>
@@ -10588,15 +10588,15 @@
       <c r="G381" s="10"/>
     </row>
     <row r="382" spans="3:7">
-      <c r="C382" s="68"/>
-      <c r="D382" s="84"/>
+      <c r="C382" s="74"/>
+      <c r="D382" s="81"/>
       <c r="E382" s="71"/>
       <c r="F382" s="71"/>
       <c r="G382" s="10"/>
     </row>
     <row r="383" spans="3:7" ht="21">
-      <c r="C383" s="68"/>
-      <c r="D383" s="84"/>
+      <c r="C383" s="74"/>
+      <c r="D383" s="81"/>
       <c r="E383" s="56" t="s">
         <v>276</v>
       </c>
@@ -10606,14 +10606,14 @@
       <c r="G383" s="10"/>
     </row>
     <row r="384" spans="3:7">
-      <c r="C384" s="68"/>
-      <c r="D384" s="84"/>
+      <c r="C384" s="74"/>
+      <c r="D384" s="81"/>
       <c r="E384" s="56"/>
       <c r="F384" s="71"/>
       <c r="G384" s="10"/>
     </row>
     <row r="385" spans="3:7" ht="21" customHeight="1">
-      <c r="C385" s="68"/>
+      <c r="C385" s="74"/>
       <c r="D385" s="55" t="s">
         <v>386</v>
       </c>
@@ -10626,8 +10626,8 @@
       <c r="G385" s="10"/>
     </row>
     <row r="386" spans="3:7" ht="21" customHeight="1">
-      <c r="C386" s="68"/>
-      <c r="D386" s="84" t="s">
+      <c r="C386" s="74"/>
+      <c r="D386" s="81" t="s">
         <v>393</v>
       </c>
       <c r="E386" s="71" t="s">
@@ -10637,15 +10637,15 @@
       <c r="G386" s="10"/>
     </row>
     <row r="387" spans="3:7" ht="21" customHeight="1">
-      <c r="C387" s="68"/>
-      <c r="D387" s="84"/>
+      <c r="C387" s="74"/>
+      <c r="D387" s="81"/>
       <c r="E387" s="71"/>
       <c r="F387" s="56"/>
       <c r="G387" s="10"/>
     </row>
     <row r="388" spans="3:7" ht="21" customHeight="1">
-      <c r="C388" s="68"/>
-      <c r="D388" s="84"/>
+      <c r="C388" s="74"/>
+      <c r="D388" s="81"/>
       <c r="E388" s="71" t="s">
         <v>395</v>
       </c>
@@ -10655,14 +10655,253 @@
       <c r="G388" s="10"/>
     </row>
     <row r="389" spans="3:7" ht="21" customHeight="1">
-      <c r="C389" s="69"/>
-      <c r="D389" s="86"/>
-      <c r="E389" s="82"/>
-      <c r="F389" s="82"/>
+      <c r="C389" s="75"/>
+      <c r="D389" s="82"/>
+      <c r="E389" s="83"/>
+      <c r="F389" s="83"/>
       <c r="G389" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="263">
+    <mergeCell ref="D305:D310"/>
+    <mergeCell ref="C259:C263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="E249:E250"/>
+    <mergeCell ref="D144:D148"/>
+    <mergeCell ref="D172:D177"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="D299:D304"/>
+    <mergeCell ref="E299:E300"/>
+    <mergeCell ref="D293:D298"/>
+    <mergeCell ref="E293:E294"/>
+    <mergeCell ref="D206:D211"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="D161:D166"/>
+    <mergeCell ref="F293:F296"/>
+    <mergeCell ref="F297:F298"/>
+    <mergeCell ref="F364:F365"/>
+    <mergeCell ref="F366:F367"/>
+    <mergeCell ref="F370:F372"/>
+    <mergeCell ref="E361:E362"/>
+    <mergeCell ref="F349:F350"/>
+    <mergeCell ref="F351:F352"/>
+    <mergeCell ref="F360:F361"/>
+    <mergeCell ref="F362:F363"/>
+    <mergeCell ref="E349:E350"/>
+    <mergeCell ref="E356:E357"/>
+    <mergeCell ref="F356:F357"/>
+    <mergeCell ref="E354:E355"/>
+    <mergeCell ref="F358:F359"/>
+    <mergeCell ref="F354:F355"/>
+    <mergeCell ref="F303:F304"/>
+    <mergeCell ref="E305:E306"/>
+    <mergeCell ref="F305:F308"/>
+    <mergeCell ref="F309:F310"/>
+    <mergeCell ref="E323:E324"/>
+    <mergeCell ref="E364:E365"/>
+    <mergeCell ref="E366:E367"/>
+    <mergeCell ref="F253:F254"/>
+    <mergeCell ref="F255:F256"/>
+    <mergeCell ref="D249:D252"/>
+    <mergeCell ref="D253:D256"/>
+    <mergeCell ref="F344:F345"/>
+    <mergeCell ref="F342:F343"/>
+    <mergeCell ref="F346:F347"/>
+    <mergeCell ref="C340:C347"/>
+    <mergeCell ref="D340:D343"/>
+    <mergeCell ref="D344:D345"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="F271:F272"/>
+    <mergeCell ref="C264:C272"/>
+    <mergeCell ref="D264:D270"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="E312:E313"/>
+    <mergeCell ref="F314:F315"/>
+    <mergeCell ref="D311:D315"/>
+    <mergeCell ref="E268:E269"/>
+    <mergeCell ref="F266:F267"/>
+    <mergeCell ref="F269:F270"/>
+    <mergeCell ref="D288:D292"/>
+    <mergeCell ref="F288:F290"/>
+    <mergeCell ref="F291:F292"/>
+    <mergeCell ref="C118:C211"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="C212:C248"/>
+    <mergeCell ref="F249:F250"/>
+    <mergeCell ref="F251:F252"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="D194:D199"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="F194:F197"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="D200:D205"/>
+    <mergeCell ref="F200:F203"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="F144:F146"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="D167:D171"/>
+    <mergeCell ref="F167:F169"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="D155:D160"/>
+    <mergeCell ref="F155:F158"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="D149:D154"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F206:F209"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="C105:C117"/>
+    <mergeCell ref="C8:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="C88:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F299:F302"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="D126:D134"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F135:F137"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="D135:D143"/>
+    <mergeCell ref="D216:D229"/>
+    <mergeCell ref="F228:F229"/>
+    <mergeCell ref="D230:D243"/>
+    <mergeCell ref="F161:F164"/>
+    <mergeCell ref="C273:C310"/>
+    <mergeCell ref="C311:C339"/>
+    <mergeCell ref="F172:F175"/>
+    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="D178:D183"/>
+    <mergeCell ref="F178:F181"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="D184:D189"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F184:F187"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="C249:C256"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="D212:D215"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="D244:D247"/>
+    <mergeCell ref="F246:F247"/>
+    <mergeCell ref="F216:F218"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="E226:E227"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="E336:E337"/>
+    <mergeCell ref="D373:D378"/>
+    <mergeCell ref="E373:E374"/>
+    <mergeCell ref="F373:F374"/>
+    <mergeCell ref="E375:E376"/>
+    <mergeCell ref="F375:F376"/>
+    <mergeCell ref="F377:F378"/>
+    <mergeCell ref="F327:F328"/>
+    <mergeCell ref="E329:E330"/>
+    <mergeCell ref="E331:E332"/>
+    <mergeCell ref="F329:F330"/>
+    <mergeCell ref="D348:D353"/>
+    <mergeCell ref="D354:D359"/>
+    <mergeCell ref="D364:D368"/>
+    <mergeCell ref="D360:D363"/>
+    <mergeCell ref="D369:D372"/>
+    <mergeCell ref="D379:D384"/>
+    <mergeCell ref="E379:E380"/>
+    <mergeCell ref="F379:F380"/>
+    <mergeCell ref="E381:E382"/>
+    <mergeCell ref="F381:F382"/>
+    <mergeCell ref="F383:F384"/>
+    <mergeCell ref="D386:D389"/>
+    <mergeCell ref="E386:E387"/>
+    <mergeCell ref="E388:E389"/>
+    <mergeCell ref="F388:F389"/>
     <mergeCell ref="F230:F232"/>
     <mergeCell ref="E233:E234"/>
     <mergeCell ref="F233:F234"/>
@@ -10687,245 +10926,6 @@
     <mergeCell ref="D316:D326"/>
     <mergeCell ref="D327:D338"/>
     <mergeCell ref="E334:E335"/>
-    <mergeCell ref="D379:D384"/>
-    <mergeCell ref="E379:E380"/>
-    <mergeCell ref="F379:F380"/>
-    <mergeCell ref="E381:E382"/>
-    <mergeCell ref="F381:F382"/>
-    <mergeCell ref="F383:F384"/>
-    <mergeCell ref="D386:D389"/>
-    <mergeCell ref="E386:E387"/>
-    <mergeCell ref="E388:E389"/>
-    <mergeCell ref="F388:F389"/>
-    <mergeCell ref="E336:E337"/>
-    <mergeCell ref="D373:D378"/>
-    <mergeCell ref="E373:E374"/>
-    <mergeCell ref="F373:F374"/>
-    <mergeCell ref="E375:E376"/>
-    <mergeCell ref="F375:F376"/>
-    <mergeCell ref="F377:F378"/>
-    <mergeCell ref="F327:F328"/>
-    <mergeCell ref="E329:E330"/>
-    <mergeCell ref="E331:E332"/>
-    <mergeCell ref="F329:F330"/>
-    <mergeCell ref="C273:C310"/>
-    <mergeCell ref="C311:C339"/>
-    <mergeCell ref="F172:F175"/>
-    <mergeCell ref="F176:F177"/>
-    <mergeCell ref="D178:D183"/>
-    <mergeCell ref="F178:F181"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="D184:D189"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F184:F187"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="C249:C256"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="D212:D215"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="D244:D247"/>
-    <mergeCell ref="F246:F247"/>
-    <mergeCell ref="F216:F218"/>
-    <mergeCell ref="E219:E220"/>
-    <mergeCell ref="F219:F220"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="E226:E227"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F299:F302"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="D126:D134"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F135:F137"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="D135:D143"/>
-    <mergeCell ref="D216:D229"/>
-    <mergeCell ref="F228:F229"/>
-    <mergeCell ref="D230:D243"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="C105:C117"/>
-    <mergeCell ref="C8:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="C88:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F161:F164"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="D42:D47"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="D155:D160"/>
-    <mergeCell ref="F155:F158"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="D149:D154"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F206:F209"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="C118:C211"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="C212:C248"/>
-    <mergeCell ref="F249:F250"/>
-    <mergeCell ref="F251:F252"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="D194:D199"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="F194:F197"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="D200:D205"/>
-    <mergeCell ref="F200:F203"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="F144:F146"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="D167:D171"/>
-    <mergeCell ref="F167:F169"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="F253:F254"/>
-    <mergeCell ref="F255:F256"/>
-    <mergeCell ref="D249:D252"/>
-    <mergeCell ref="D253:D256"/>
-    <mergeCell ref="F344:F345"/>
-    <mergeCell ref="F342:F343"/>
-    <mergeCell ref="F346:F347"/>
-    <mergeCell ref="C340:C347"/>
-    <mergeCell ref="D340:D343"/>
-    <mergeCell ref="D344:D345"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="F271:F272"/>
-    <mergeCell ref="C264:C272"/>
-    <mergeCell ref="D264:D270"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="E312:E313"/>
-    <mergeCell ref="F314:F315"/>
-    <mergeCell ref="D311:D315"/>
-    <mergeCell ref="E268:E269"/>
-    <mergeCell ref="F266:F267"/>
-    <mergeCell ref="F269:F270"/>
-    <mergeCell ref="D288:D292"/>
-    <mergeCell ref="F288:F290"/>
-    <mergeCell ref="F291:F292"/>
-    <mergeCell ref="F293:F296"/>
-    <mergeCell ref="F297:F298"/>
-    <mergeCell ref="F364:F365"/>
-    <mergeCell ref="F366:F367"/>
-    <mergeCell ref="F370:F372"/>
-    <mergeCell ref="E361:E362"/>
-    <mergeCell ref="F349:F350"/>
-    <mergeCell ref="F351:F352"/>
-    <mergeCell ref="F360:F361"/>
-    <mergeCell ref="F362:F363"/>
-    <mergeCell ref="E349:E350"/>
-    <mergeCell ref="E356:E357"/>
-    <mergeCell ref="F356:F357"/>
-    <mergeCell ref="E354:E355"/>
-    <mergeCell ref="F358:F359"/>
-    <mergeCell ref="F354:F355"/>
-    <mergeCell ref="F303:F304"/>
-    <mergeCell ref="E305:E306"/>
-    <mergeCell ref="F305:F308"/>
-    <mergeCell ref="F309:F310"/>
-    <mergeCell ref="E323:E324"/>
-    <mergeCell ref="E364:E365"/>
-    <mergeCell ref="E366:E367"/>
-    <mergeCell ref="C259:C263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="E253:E254"/>
-    <mergeCell ref="E249:E250"/>
-    <mergeCell ref="D144:D148"/>
-    <mergeCell ref="D172:D177"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="D299:D304"/>
-    <mergeCell ref="E299:E300"/>
-    <mergeCell ref="D293:D298"/>
-    <mergeCell ref="E293:E294"/>
-    <mergeCell ref="D348:D353"/>
-    <mergeCell ref="D354:D359"/>
-    <mergeCell ref="D364:D368"/>
-    <mergeCell ref="D360:D363"/>
-    <mergeCell ref="D369:D372"/>
-    <mergeCell ref="D206:D211"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="D161:D166"/>
-    <mergeCell ref="D305:D310"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11024,7 +11024,7 @@
       </c>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="93" t="s">
         <v>216</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -11033,35 +11033,35 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="92"/>
+      <c r="C5" s="94"/>
       <c r="D5" s="13" t="s">
         <v>223</v>
       </c>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="92"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="13" t="s">
         <v>224</v>
       </c>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="92"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="13" t="s">
         <v>225</v>
       </c>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="92"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="13" t="s">
         <v>226</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="94" t="s">
         <v>227</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -11070,35 +11070,35 @@
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="92"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="13" t="s">
         <v>223</v>
       </c>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="92"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="13" t="s">
         <v>224</v>
       </c>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="92"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="13" t="s">
         <v>225</v>
       </c>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="92"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="13" t="s">
         <v>228</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="94" t="s">
         <v>229</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -11107,35 +11107,35 @@
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="92"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="13" t="s">
         <v>223</v>
       </c>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="92"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="13" t="s">
         <v>224</v>
       </c>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="92"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="13" t="s">
         <v>225</v>
       </c>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="92"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="3" t="s">
         <v>230</v>
       </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="94" t="s">
         <v>217</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -11144,28 +11144,28 @@
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="92"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="30" t="s">
         <v>234</v>
       </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="92"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="30" t="s">
         <v>230</v>
       </c>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="92"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="30" t="s">
         <v>235</v>
       </c>
       <c r="E22" s="30"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="94" t="s">
         <v>218</v>
       </c>
       <c r="D23" s="37" t="s">
@@ -11174,91 +11174,91 @@
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="92"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="34" t="s">
         <v>238</v>
       </c>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="92"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="35" t="s">
         <v>239</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="92"/>
+      <c r="C26" s="94"/>
       <c r="D26" s="35" t="s">
         <v>240</v>
       </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="92"/>
+      <c r="C27" s="94"/>
       <c r="D27" s="35" t="s">
         <v>242</v>
       </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="92"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="35" t="s">
         <v>241</v>
       </c>
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="92"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="35" t="s">
         <v>243</v>
       </c>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="92"/>
+      <c r="C30" s="94"/>
       <c r="D30" s="35" t="s">
         <v>244</v>
       </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="92"/>
+      <c r="C31" s="94"/>
       <c r="D31" s="35" t="s">
         <v>245</v>
       </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="92"/>
+      <c r="C32" s="94"/>
       <c r="D32" s="35" t="s">
         <v>246</v>
       </c>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="92"/>
+      <c r="C33" s="94"/>
       <c r="D33" s="35" t="s">
         <v>247</v>
       </c>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="92"/>
+      <c r="C34" s="94"/>
       <c r="D34" s="35" t="s">
         <v>248</v>
       </c>
       <c r="E34" s="10"/>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="92"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="38" t="s">
         <v>236</v>
       </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="3:5">
-      <c r="C36" s="90" t="s">
+      <c r="C36" s="92" t="s">
         <v>219</v>
       </c>
       <c r="D36" s="37" t="s">
@@ -11267,56 +11267,56 @@
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="3:5">
-      <c r="C37" s="90"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="35" t="s">
         <v>251</v>
       </c>
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="90"/>
+      <c r="C38" s="92"/>
       <c r="D38" s="35" t="s">
         <v>252</v>
       </c>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="90"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="35" t="s">
         <v>253</v>
       </c>
       <c r="E39" s="10"/>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="90"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="35" t="s">
         <v>254</v>
       </c>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="3:5">
-      <c r="C41" s="90"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="35" t="s">
         <v>255</v>
       </c>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="3:5">
-      <c r="C42" s="90"/>
+      <c r="C42" s="92"/>
       <c r="D42" s="35" t="s">
         <v>256</v>
       </c>
       <c r="E42" s="10"/>
     </row>
     <row r="43" spans="3:5">
-      <c r="C43" s="90"/>
+      <c r="C43" s="92"/>
       <c r="D43" s="38" t="s">
         <v>249</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="90" t="s">
+      <c r="C44" s="92" t="s">
         <v>257</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -11325,56 +11325,56 @@
       <c r="E44" s="13"/>
     </row>
     <row r="45" spans="3:5">
-      <c r="C45" s="90"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="35" t="s">
         <v>251</v>
       </c>
       <c r="E45" s="10"/>
     </row>
     <row r="46" spans="3:5">
-      <c r="C46" s="90"/>
+      <c r="C46" s="92"/>
       <c r="D46" s="35" t="s">
         <v>252</v>
       </c>
       <c r="E46" s="10"/>
     </row>
     <row r="47" spans="3:5">
-      <c r="C47" s="90"/>
+      <c r="C47" s="92"/>
       <c r="D47" s="35" t="s">
         <v>253</v>
       </c>
       <c r="E47" s="10"/>
     </row>
     <row r="48" spans="3:5">
-      <c r="C48" s="90"/>
+      <c r="C48" s="92"/>
       <c r="D48" s="35" t="s">
         <v>254</v>
       </c>
       <c r="E48" s="10"/>
     </row>
     <row r="49" spans="3:5">
-      <c r="C49" s="90"/>
+      <c r="C49" s="92"/>
       <c r="D49" s="35" t="s">
         <v>255</v>
       </c>
       <c r="E49" s="10"/>
     </row>
     <row r="50" spans="3:5">
-      <c r="C50" s="90"/>
+      <c r="C50" s="92"/>
       <c r="D50" s="35" t="s">
         <v>258</v>
       </c>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="3:5">
-      <c r="C51" s="90"/>
+      <c r="C51" s="92"/>
       <c r="D51" s="39" t="s">
         <v>259</v>
       </c>
       <c r="E51" s="30"/>
     </row>
     <row r="52" spans="3:5">
-      <c r="C52" s="90" t="s">
+      <c r="C52" s="92" t="s">
         <v>220</v>
       </c>
       <c r="D52" s="37" t="s">
@@ -11383,28 +11383,28 @@
       <c r="E52" s="9"/>
     </row>
     <row r="53" spans="3:5">
-      <c r="C53" s="90"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="35" t="s">
         <v>261</v>
       </c>
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="3:5">
-      <c r="C54" s="90"/>
+      <c r="C54" s="92"/>
       <c r="D54" s="35" t="s">
         <v>245</v>
       </c>
       <c r="E54" s="10"/>
     </row>
     <row r="55" spans="3:5">
-      <c r="C55" s="90"/>
+      <c r="C55" s="92"/>
       <c r="D55" s="36" t="s">
         <v>262</v>
       </c>
       <c r="E55" s="11"/>
     </row>
     <row r="56" spans="3:5">
-      <c r="C56" s="90" t="s">
+      <c r="C56" s="92" t="s">
         <v>263</v>
       </c>
       <c r="D56" s="33" t="s">
@@ -11413,28 +11413,28 @@
       <c r="E56" s="13"/>
     </row>
     <row r="57" spans="3:5">
-      <c r="C57" s="90"/>
+      <c r="C57" s="92"/>
       <c r="D57" s="35" t="s">
         <v>261</v>
       </c>
       <c r="E57" s="10"/>
     </row>
     <row r="58" spans="3:5">
-      <c r="C58" s="90"/>
+      <c r="C58" s="92"/>
       <c r="D58" s="35" t="s">
         <v>265</v>
       </c>
       <c r="E58" s="10"/>
     </row>
     <row r="59" spans="3:5">
-      <c r="C59" s="90"/>
+      <c r="C59" s="92"/>
       <c r="D59" s="40" t="s">
         <v>264</v>
       </c>
       <c r="E59" s="30"/>
     </row>
     <row r="60" spans="3:5">
-      <c r="C60" s="90" t="s">
+      <c r="C60" s="92" t="s">
         <v>221</v>
       </c>
       <c r="D60" s="37" t="s">
@@ -11443,21 +11443,21 @@
       <c r="E60" s="9"/>
     </row>
     <row r="61" spans="3:5">
-      <c r="C61" s="90"/>
+      <c r="C61" s="92"/>
       <c r="D61" s="35" t="s">
         <v>267</v>
       </c>
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="90"/>
+      <c r="C62" s="92"/>
       <c r="D62" s="36" t="s">
         <v>268</v>
       </c>
       <c r="E62" s="11"/>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="90" t="s">
+      <c r="C63" s="92" t="s">
         <v>231</v>
       </c>
       <c r="D63" s="33" t="s">
@@ -11466,35 +11466,35 @@
       <c r="E63" s="13"/>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="90"/>
+      <c r="C64" s="92"/>
       <c r="D64" s="35" t="s">
         <v>271</v>
       </c>
       <c r="E64" s="10"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="90"/>
+      <c r="C65" s="92"/>
       <c r="D65" s="35" t="s">
         <v>272</v>
       </c>
       <c r="E65" s="10"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="90"/>
+      <c r="C66" s="92"/>
       <c r="D66" s="35" t="s">
         <v>273</v>
       </c>
       <c r="E66" s="10"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="90"/>
+      <c r="C67" s="92"/>
       <c r="D67" s="35" t="s">
         <v>274</v>
       </c>
       <c r="E67" s="10"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="90"/>
+      <c r="C68" s="92"/>
       <c r="D68" s="39" t="s">
         <v>269</v>
       </c>
@@ -11511,17 +11511,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C68"/>
     <mergeCell ref="C36:C43"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C23:C35"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C68"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11711,7 +11711,7 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="68"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -11724,7 +11724,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="68"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
@@ -11732,18 +11732,18 @@
       <c r="F6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="95" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="69"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="94"/>
+      <c r="G7" s="96"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="89" t="s">
@@ -11756,32 +11756,32 @@
       <c r="F8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="72" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="68"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="79"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="68"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="78"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="68"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
@@ -11792,7 +11792,7 @@
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="69"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
@@ -11808,13 +11808,13 @@
       <c r="F13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="97" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="F14" s="10"/>
-      <c r="G14" s="96"/>
+      <c r="G14" s="98"/>
     </row>
     <row r="15" spans="2:7">
       <c r="F15" s="10" t="s">
